--- a/analyses/data/pilotData_100_kin.xlsx
+++ b/analyses/data/pilotData_100_kin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27984" uniqueCount="13992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59312" uniqueCount="13992">
   <si>
     <t>StimDuration</t>
   </si>
@@ -42009,7 +42009,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="320">
+  <borders count="1032">
     <border>
       <left/>
       <right/>
@@ -42336,11 +42336,723 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="1032">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -42661,6 +43373,718 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1031" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42764,268 +44188,268 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="1030" t="s">
         <v>13904</v>
       </c>
-      <c r="B1" s="318" t="s">
+      <c r="B1" s="1030" t="s">
         <v>13905</v>
       </c>
-      <c r="C1" s="318" t="s">
+      <c r="C1" s="1030" t="s">
         <v>13906</v>
       </c>
-      <c r="D1" s="318" t="s">
+      <c r="D1" s="1030" t="s">
         <v>13907</v>
       </c>
-      <c r="E1" s="318" t="s">
+      <c r="E1" s="1030" t="s">
         <v>13908</v>
       </c>
-      <c r="F1" s="318" t="s">
+      <c r="F1" s="1030" t="s">
         <v>13909</v>
       </c>
-      <c r="G1" s="318" t="s">
+      <c r="G1" s="1030" t="s">
         <v>13910</v>
       </c>
-      <c r="H1" s="318" t="s">
+      <c r="H1" s="1030" t="s">
         <v>13911</v>
       </c>
-      <c r="I1" s="318" t="s">
+      <c r="I1" s="1030" t="s">
         <v>13912</v>
       </c>
-      <c r="J1" s="318" t="s">
+      <c r="J1" s="1030" t="s">
         <v>13913</v>
       </c>
-      <c r="K1" s="318" t="s">
+      <c r="K1" s="1030" t="s">
         <v>13914</v>
       </c>
-      <c r="L1" s="318" t="s">
+      <c r="L1" s="1030" t="s">
         <v>13915</v>
       </c>
-      <c r="M1" s="318" t="s">
+      <c r="M1" s="1030" t="s">
         <v>13916</v>
       </c>
-      <c r="N1" s="318" t="s">
+      <c r="N1" s="1030" t="s">
         <v>13917</v>
       </c>
-      <c r="O1" s="318" t="s">
+      <c r="O1" s="1030" t="s">
         <v>13918</v>
       </c>
-      <c r="P1" s="318" t="s">
+      <c r="P1" s="1030" t="s">
         <v>13919</v>
       </c>
-      <c r="Q1" s="318" t="s">
+      <c r="Q1" s="1030" t="s">
         <v>13920</v>
       </c>
-      <c r="R1" s="318" t="s">
+      <c r="R1" s="1030" t="s">
         <v>13921</v>
       </c>
-      <c r="S1" s="318" t="s">
+      <c r="S1" s="1030" t="s">
         <v>13922</v>
       </c>
-      <c r="T1" s="318" t="s">
+      <c r="T1" s="1030" t="s">
         <v>13923</v>
       </c>
-      <c r="U1" s="318" t="s">
+      <c r="U1" s="1030" t="s">
         <v>13924</v>
       </c>
-      <c r="V1" s="318" t="s">
+      <c r="V1" s="1030" t="s">
         <v>13925</v>
       </c>
-      <c r="W1" s="318" t="s">
+      <c r="W1" s="1030" t="s">
         <v>13926</v>
       </c>
-      <c r="X1" s="318" t="s">
+      <c r="X1" s="1030" t="s">
         <v>13927</v>
       </c>
-      <c r="Y1" s="318" t="s">
+      <c r="Y1" s="1030" t="s">
         <v>13928</v>
       </c>
-      <c r="Z1" s="318" t="s">
+      <c r="Z1" s="1030" t="s">
         <v>13929</v>
       </c>
-      <c r="AA1" s="318" t="s">
+      <c r="AA1" s="1030" t="s">
         <v>13930</v>
       </c>
-      <c r="AB1" s="318" t="s">
+      <c r="AB1" s="1030" t="s">
         <v>13931</v>
       </c>
-      <c r="AC1" s="318" t="s">
+      <c r="AC1" s="1030" t="s">
         <v>13932</v>
       </c>
-      <c r="AD1" s="318" t="s">
+      <c r="AD1" s="1030" t="s">
         <v>13933</v>
       </c>
-      <c r="AE1" s="318" t="s">
+      <c r="AE1" s="1030" t="s">
         <v>13934</v>
       </c>
-      <c r="AF1" s="318" t="s">
+      <c r="AF1" s="1030" t="s">
         <v>13935</v>
       </c>
-      <c r="AG1" s="318" t="s">
+      <c r="AG1" s="1030" t="s">
         <v>13936</v>
       </c>
-      <c r="AH1" s="318" t="s">
+      <c r="AH1" s="1030" t="s">
         <v>13937</v>
       </c>
-      <c r="AI1" s="318" t="s">
+      <c r="AI1" s="1030" t="s">
         <v>13938</v>
       </c>
-      <c r="AJ1" s="318" t="s">
+      <c r="AJ1" s="1030" t="s">
         <v>13939</v>
       </c>
-      <c r="AK1" s="318" t="s">
+      <c r="AK1" s="1030" t="s">
         <v>13940</v>
       </c>
-      <c r="AL1" s="318" t="s">
+      <c r="AL1" s="1030" t="s">
         <v>13941</v>
       </c>
-      <c r="AM1" s="318" t="s">
+      <c r="AM1" s="1030" t="s">
         <v>13942</v>
       </c>
-      <c r="AN1" s="318" t="s">
+      <c r="AN1" s="1030" t="s">
         <v>13943</v>
       </c>
-      <c r="AO1" s="318" t="s">
+      <c r="AO1" s="1030" t="s">
         <v>13944</v>
       </c>
-      <c r="AP1" s="318" t="s">
+      <c r="AP1" s="1030" t="s">
         <v>13945</v>
       </c>
-      <c r="AQ1" s="318" t="s">
+      <c r="AQ1" s="1030" t="s">
         <v>13946</v>
       </c>
-      <c r="AR1" s="318" t="s">
+      <c r="AR1" s="1030" t="s">
         <v>13947</v>
       </c>
-      <c r="AS1" s="318" t="s">
+      <c r="AS1" s="1030" t="s">
         <v>13948</v>
       </c>
-      <c r="AT1" s="318" t="s">
+      <c r="AT1" s="1030" t="s">
         <v>13949</v>
       </c>
-      <c r="AU1" s="318" t="s">
+      <c r="AU1" s="1030" t="s">
         <v>13950</v>
       </c>
-      <c r="AV1" s="318" t="s">
+      <c r="AV1" s="1030" t="s">
         <v>13951</v>
       </c>
-      <c r="AW1" s="318" t="s">
+      <c r="AW1" s="1030" t="s">
         <v>13952</v>
       </c>
-      <c r="AX1" s="318" t="s">
+      <c r="AX1" s="1030" t="s">
         <v>13953</v>
       </c>
-      <c r="AY1" s="318" t="s">
+      <c r="AY1" s="1030" t="s">
         <v>13954</v>
       </c>
-      <c r="AZ1" s="318" t="s">
+      <c r="AZ1" s="1030" t="s">
         <v>13955</v>
       </c>
-      <c r="BA1" s="318" t="s">
+      <c r="BA1" s="1030" t="s">
         <v>13956</v>
       </c>
-      <c r="BB1" s="318" t="s">
+      <c r="BB1" s="1030" t="s">
         <v>13957</v>
       </c>
-      <c r="BC1" s="318" t="s">
+      <c r="BC1" s="1030" t="s">
         <v>13958</v>
       </c>
-      <c r="BD1" s="318" t="s">
+      <c r="BD1" s="1030" t="s">
         <v>13959</v>
       </c>
-      <c r="BE1" s="318" t="s">
+      <c r="BE1" s="1030" t="s">
         <v>13960</v>
       </c>
-      <c r="BF1" s="318" t="s">
+      <c r="BF1" s="1030" t="s">
         <v>13961</v>
       </c>
-      <c r="BG1" s="318" t="s">
+      <c r="BG1" s="1030" t="s">
         <v>13962</v>
       </c>
-      <c r="BH1" s="318" t="s">
+      <c r="BH1" s="1030" t="s">
         <v>13963</v>
       </c>
-      <c r="BI1" s="318" t="s">
+      <c r="BI1" s="1030" t="s">
         <v>13964</v>
       </c>
-      <c r="BJ1" s="318" t="s">
+      <c r="BJ1" s="1030" t="s">
         <v>13965</v>
       </c>
-      <c r="BK1" s="318" t="s">
+      <c r="BK1" s="1030" t="s">
         <v>13966</v>
       </c>
-      <c r="BL1" s="318" t="s">
+      <c r="BL1" s="1030" t="s">
         <v>13967</v>
       </c>
-      <c r="BM1" s="318" t="s">
+      <c r="BM1" s="1030" t="s">
         <v>13968</v>
       </c>
-      <c r="BN1" s="318" t="s">
+      <c r="BN1" s="1030" t="s">
         <v>13969</v>
       </c>
-      <c r="BO1" s="318" t="s">
+      <c r="BO1" s="1030" t="s">
         <v>13970</v>
       </c>
-      <c r="BP1" s="318" t="s">
+      <c r="BP1" s="1030" t="s">
         <v>13971</v>
       </c>
-      <c r="BQ1" s="318" t="s">
+      <c r="BQ1" s="1030" t="s">
         <v>13972</v>
       </c>
-      <c r="BR1" s="318" t="s">
+      <c r="BR1" s="1030" t="s">
         <v>13973</v>
       </c>
-      <c r="BS1" s="318" t="s">
+      <c r="BS1" s="1030" t="s">
         <v>13974</v>
       </c>
-      <c r="BT1" s="318" t="s">
+      <c r="BT1" s="1030" t="s">
         <v>13975</v>
       </c>
-      <c r="BU1" s="318" t="s">
+      <c r="BU1" s="1030" t="s">
         <v>13976</v>
       </c>
-      <c r="BV1" s="318" t="s">
+      <c r="BV1" s="1030" t="s">
         <v>13977</v>
       </c>
-      <c r="BW1" s="318" t="s">
+      <c r="BW1" s="1030" t="s">
         <v>13978</v>
       </c>
-      <c r="BX1" s="318" t="s">
+      <c r="BX1" s="1030" t="s">
         <v>13979</v>
       </c>
-      <c r="BY1" s="318" t="s">
+      <c r="BY1" s="1030" t="s">
         <v>13980</v>
       </c>
-      <c r="BZ1" s="318" t="s">
+      <c r="BZ1" s="1030" t="s">
         <v>13981</v>
       </c>
-      <c r="CA1" s="318" t="s">
+      <c r="CA1" s="1030" t="s">
         <v>13982</v>
       </c>
-      <c r="CB1" s="318" t="s">
+      <c r="CB1" s="1030" t="s">
         <v>13983</v>
       </c>
-      <c r="CC1" s="318" t="s">
+      <c r="CC1" s="1030" t="s">
         <v>13984</v>
       </c>
-      <c r="CD1" s="318" t="s">
+      <c r="CD1" s="1030" t="s">
         <v>13985</v>
       </c>
-      <c r="CE1" s="318" t="s">
+      <c r="CE1" s="1030" t="s">
         <v>13986</v>
       </c>
-      <c r="CF1" s="318" t="s">
+      <c r="CF1" s="1030" t="s">
         <v>13987</v>
       </c>
-      <c r="CG1" s="318" t="s">
+      <c r="CG1" s="1030" t="s">
         <v>13988</v>
       </c>
-      <c r="CH1" s="318" t="s">
+      <c r="CH1" s="1030" t="s">
         <v>13989</v>
       </c>
-      <c r="CI1" s="318" t="s">
+      <c r="CI1" s="1030" t="s">
         <v>13990</v>
       </c>
-      <c r="CJ1" s="318" t="s">
+      <c r="CJ1" s="1030" t="s">
         <v>13991</v>
       </c>
     </row>

--- a/analyses/data/pilotData_100_kin.xlsx
+++ b/analyses/data/pilotData_100_kin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116340" uniqueCount="14010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185770" uniqueCount="14010">
   <si>
     <t>StimDuration</t>
   </si>
@@ -42063,7 +42063,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2270">
+  <borders count="3580">
     <border>
       <left/>
       <right/>
@@ -44340,11 +44340,1321 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2270">
+  <cellXfs count="3580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -46615,6 +47925,1316 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2267" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2268" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2579" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2580" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2581" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2582" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2583" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2584" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2585" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2586" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2587" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2588" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2589" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2590" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2591" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2592" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2593" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2594" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2595" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2596" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2597" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2598" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2599" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2600" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2601" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2602" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2603" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2604" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2605" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2606" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2607" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2608" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2609" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2610" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2611" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2612" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2613" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2614" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2615" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2616" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2617" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2618" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2619" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2620" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2621" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2622" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2623" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2624" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2625" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2626" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2627" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2628" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2629" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2630" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2631" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2632" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2633" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2634" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2635" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2636" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2637" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2638" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2639" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2640" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2641" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2642" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2643" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2644" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2645" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2646" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2647" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2648" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2649" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2650" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2651" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2652" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2653" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2654" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2655" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2656" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2657" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2658" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2659" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2660" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2661" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2662" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2663" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2664" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2665" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2666" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2667" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2668" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2669" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2670" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2671" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2672" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2673" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2674" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2675" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2676" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2677" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2678" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2679" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2680" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2681" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2682" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2683" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2684" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2685" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2686" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2687" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2688" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2689" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2690" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2691" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2692" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2693" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2694" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2695" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2696" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2697" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2698" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2699" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2700" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2701" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2702" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2703" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2704" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2705" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2706" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2707" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2708" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2709" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2710" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2711" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2712" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2713" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2714" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2715" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2716" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2717" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2718" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2719" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2720" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2721" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2722" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2723" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2724" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2725" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2726" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2727" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2728" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2729" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2730" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2731" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2732" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2733" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2734" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2735" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2736" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2737" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2738" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2739" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2740" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2741" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2742" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2743" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2744" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2745" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2746" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2747" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2748" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2749" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2750" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2751" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2752" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2753" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2754" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2755" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2756" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2757" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2758" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2759" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2760" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2761" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2762" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2763" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2764" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2765" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2766" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2767" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2768" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2769" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2770" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2771" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2772" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2773" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2774" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2775" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2776" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2777" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2778" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2779" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2780" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2781" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2782" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2783" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2784" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2786" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2787" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2788" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2789" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2790" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2791" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2792" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2793" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2794" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2795" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2796" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2797" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2798" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2799" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2800" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2801" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2802" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2803" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2804" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2805" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2806" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2807" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2808" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2809" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2810" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2811" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2812" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2813" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2814" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2815" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2816" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2817" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2818" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2819" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2820" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2821" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2822" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2823" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2824" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2825" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2826" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2827" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2828" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2829" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2830" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2831" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2832" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2833" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2834" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2835" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2836" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2837" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2838" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2839" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2840" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2841" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2842" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2843" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2844" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2845" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2846" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2847" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2848" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2849" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2850" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2851" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2852" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2853" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2854" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2855" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2856" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2857" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2858" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2859" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2860" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2861" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2862" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2863" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2864" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2865" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2866" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2867" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2868" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2869" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2870" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2871" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2872" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2873" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2874" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2875" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2876" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2877" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2878" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2879" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2880" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2881" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2882" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2883" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2884" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2885" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2886" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2887" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2888" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2889" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2890" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2891" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2892" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2893" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2894" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2895" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2896" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2897" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2898" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2899" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2900" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2901" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2902" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2903" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2904" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2905" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2906" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2907" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2908" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2909" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2910" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2911" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2912" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2913" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2914" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2915" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2916" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2917" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2918" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2919" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2920" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2921" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2922" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2923" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2924" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2925" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2926" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2927" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2928" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2929" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2930" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2931" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2932" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2933" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2934" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2935" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2936" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2937" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2938" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2939" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2940" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2941" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2942" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2943" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2944" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2945" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2946" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2947" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2948" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2949" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2950" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2951" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2952" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2953" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2954" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2955" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2956" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2957" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2958" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2959" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2960" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2961" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2962" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2963" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2964" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2965" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2966" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2967" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2968" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2969" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2970" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2971" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2972" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2973" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2974" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2975" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2976" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2977" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2978" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2979" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2980" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2981" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2982" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2983" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2984" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2985" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2986" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2987" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2988" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2989" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2990" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2991" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2992" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2993" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2994" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2995" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2996" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2997" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2998" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2999" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3000" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3001" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3002" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3003" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3004" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3005" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3006" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3007" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3008" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3009" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3010" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3011" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3012" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3013" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3014" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3015" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3016" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3017" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3018" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3019" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3020" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3021" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3022" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3023" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3024" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3025" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3026" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3027" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3028" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3029" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3030" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3031" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3032" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3033" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3034" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3035" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3036" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3037" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3038" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3039" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3040" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3041" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3042" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3043" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3044" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3045" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3046" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3047" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3048" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3049" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3050" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3051" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3052" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3053" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3054" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3055" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3056" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3057" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3058" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3059" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3060" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3061" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3062" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3063" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3064" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3065" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3066" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3067" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3068" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3069" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3070" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3071" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3072" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3073" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3074" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3075" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3076" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3077" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3078" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3079" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3080" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3081" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3082" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3083" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3084" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3085" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3086" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3087" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3088" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3089" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3090" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3091" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3092" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3093" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3094" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3095" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3096" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3097" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3098" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3099" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3406" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3413" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3420" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3427" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3434" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3441" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3448" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3455" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3462" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3469" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3476" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3483" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3490" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3497" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3504" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3505" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3506" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3507" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3508" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3509" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3510" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3511" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3512" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3513" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3514" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3515" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3516" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3517" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3518" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3519" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3520" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3521" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3522" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3523" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3524" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3525" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3526" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3527" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3528" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3529" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3530" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3531" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3532" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3533" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3534" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3535" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3536" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3537" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3538" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3539" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3540" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3541" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3542" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3543" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3544" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3545" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3546" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3547" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3548" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3549" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3550" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3551" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3552" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3553" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3554" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3555" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3556" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3557" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3558" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3559" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3560" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3561" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3562" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3563" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3564" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3565" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3566" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3567" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3568" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3569" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3570" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3571" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3572" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3573" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3574" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3575" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3576" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3577" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3578" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3579" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46736,322 +49356,322 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2268" t="s">
+      <c r="A1" s="3578" t="s">
         <v>13904</v>
       </c>
-      <c r="B1" s="2268" t="s">
+      <c r="B1" s="3578" t="s">
         <v>13905</v>
       </c>
-      <c r="C1" s="2268" t="s">
+      <c r="C1" s="3578" t="s">
         <v>13906</v>
       </c>
-      <c r="D1" s="2268" t="s">
+      <c r="D1" s="3578" t="s">
         <v>13907</v>
       </c>
-      <c r="E1" s="2268" t="s">
+      <c r="E1" s="3578" t="s">
         <v>13908</v>
       </c>
-      <c r="F1" s="2268" t="s">
+      <c r="F1" s="3578" t="s">
         <v>13909</v>
       </c>
-      <c r="G1" s="2268" t="s">
+      <c r="G1" s="3578" t="s">
         <v>13910</v>
       </c>
-      <c r="H1" s="2268" t="s">
+      <c r="H1" s="3578" t="s">
         <v>13911</v>
       </c>
-      <c r="I1" s="2268" t="s">
+      <c r="I1" s="3578" t="s">
         <v>13912</v>
       </c>
-      <c r="J1" s="2268" t="s">
+      <c r="J1" s="3578" t="s">
         <v>13913</v>
       </c>
-      <c r="K1" s="2268" t="s">
+      <c r="K1" s="3578" t="s">
         <v>13914</v>
       </c>
-      <c r="L1" s="2268" t="s">
+      <c r="L1" s="3578" t="s">
         <v>13915</v>
       </c>
-      <c r="M1" s="2268" t="s">
+      <c r="M1" s="3578" t="s">
         <v>13916</v>
       </c>
-      <c r="N1" s="2268" t="s">
+      <c r="N1" s="3578" t="s">
         <v>13917</v>
       </c>
-      <c r="O1" s="2268" t="s">
+      <c r="O1" s="3578" t="s">
         <v>13918</v>
       </c>
-      <c r="P1" s="2268" t="s">
+      <c r="P1" s="3578" t="s">
         <v>13919</v>
       </c>
-      <c r="Q1" s="2268" t="s">
+      <c r="Q1" s="3578" t="s">
         <v>13920</v>
       </c>
-      <c r="R1" s="2268" t="s">
+      <c r="R1" s="3578" t="s">
         <v>13921</v>
       </c>
-      <c r="S1" s="2268" t="s">
+      <c r="S1" s="3578" t="s">
         <v>13922</v>
       </c>
-      <c r="T1" s="2268" t="s">
+      <c r="T1" s="3578" t="s">
         <v>13923</v>
       </c>
-      <c r="U1" s="2268" t="s">
+      <c r="U1" s="3578" t="s">
         <v>13924</v>
       </c>
-      <c r="V1" s="2268" t="s">
+      <c r="V1" s="3578" t="s">
         <v>13925</v>
       </c>
-      <c r="W1" s="2268" t="s">
+      <c r="W1" s="3578" t="s">
         <v>13926</v>
       </c>
-      <c r="X1" s="2268" t="s">
+      <c r="X1" s="3578" t="s">
         <v>13927</v>
       </c>
-      <c r="Y1" s="2268" t="s">
+      <c r="Y1" s="3578" t="s">
         <v>13928</v>
       </c>
-      <c r="Z1" s="2268" t="s">
+      <c r="Z1" s="3578" t="s">
         <v>13929</v>
       </c>
-      <c r="AA1" s="2268" t="s">
+      <c r="AA1" s="3578" t="s">
         <v>13930</v>
       </c>
-      <c r="AB1" s="2268" t="s">
+      <c r="AB1" s="3578" t="s">
         <v>13931</v>
       </c>
-      <c r="AC1" s="2268" t="s">
+      <c r="AC1" s="3578" t="s">
         <v>13932</v>
       </c>
-      <c r="AD1" s="2268" t="s">
+      <c r="AD1" s="3578" t="s">
         <v>13933</v>
       </c>
-      <c r="AE1" s="2268" t="s">
+      <c r="AE1" s="3578" t="s">
         <v>13934</v>
       </c>
-      <c r="AF1" s="2268" t="s">
+      <c r="AF1" s="3578" t="s">
         <v>13935</v>
       </c>
-      <c r="AG1" s="2268" t="s">
+      <c r="AG1" s="3578" t="s">
         <v>13936</v>
       </c>
-      <c r="AH1" s="2268" t="s">
+      <c r="AH1" s="3578" t="s">
         <v>13937</v>
       </c>
-      <c r="AI1" s="2268" t="s">
+      <c r="AI1" s="3578" t="s">
         <v>13938</v>
       </c>
-      <c r="AJ1" s="2268" t="s">
+      <c r="AJ1" s="3578" t="s">
         <v>13939</v>
       </c>
-      <c r="AK1" s="2268" t="s">
+      <c r="AK1" s="3578" t="s">
         <v>13940</v>
       </c>
-      <c r="AL1" s="2268" t="s">
+      <c r="AL1" s="3578" t="s">
         <v>13992</v>
       </c>
-      <c r="AM1" s="2268" t="s">
+      <c r="AM1" s="3578" t="s">
         <v>13993</v>
       </c>
-      <c r="AN1" s="2268" t="s">
+      <c r="AN1" s="3578" t="s">
         <v>13994</v>
       </c>
-      <c r="AO1" s="2268" t="s">
+      <c r="AO1" s="3578" t="s">
         <v>13941</v>
       </c>
-      <c r="AP1" s="2268" t="s">
+      <c r="AP1" s="3578" t="s">
         <v>13942</v>
       </c>
-      <c r="AQ1" s="2268" t="s">
+      <c r="AQ1" s="3578" t="s">
         <v>13943</v>
       </c>
-      <c r="AR1" s="2268" t="s">
+      <c r="AR1" s="3578" t="s">
         <v>13995</v>
       </c>
-      <c r="AS1" s="2268" t="s">
+      <c r="AS1" s="3578" t="s">
         <v>13996</v>
       </c>
-      <c r="AT1" s="2268" t="s">
+      <c r="AT1" s="3578" t="s">
         <v>13997</v>
       </c>
-      <c r="AU1" s="2268" t="s">
+      <c r="AU1" s="3578" t="s">
         <v>13944</v>
       </c>
-      <c r="AV1" s="2268" t="s">
+      <c r="AV1" s="3578" t="s">
         <v>13945</v>
       </c>
-      <c r="AW1" s="2268" t="s">
+      <c r="AW1" s="3578" t="s">
         <v>13946</v>
       </c>
-      <c r="AX1" s="2268" t="s">
+      <c r="AX1" s="3578" t="s">
         <v>13947</v>
       </c>
-      <c r="AY1" s="2268" t="s">
+      <c r="AY1" s="3578" t="s">
         <v>13948</v>
       </c>
-      <c r="AZ1" s="2268" t="s">
+      <c r="AZ1" s="3578" t="s">
         <v>13949</v>
       </c>
-      <c r="BA1" s="2268" t="s">
+      <c r="BA1" s="3578" t="s">
         <v>13950</v>
       </c>
-      <c r="BB1" s="2268" t="s">
+      <c r="BB1" s="3578" t="s">
         <v>13951</v>
       </c>
-      <c r="BC1" s="2268" t="s">
+      <c r="BC1" s="3578" t="s">
         <v>13952</v>
       </c>
-      <c r="BD1" s="2268" t="s">
+      <c r="BD1" s="3578" t="s">
         <v>13953</v>
       </c>
-      <c r="BE1" s="2268" t="s">
+      <c r="BE1" s="3578" t="s">
         <v>13954</v>
       </c>
-      <c r="BF1" s="2268" t="s">
+      <c r="BF1" s="3578" t="s">
         <v>13955</v>
       </c>
-      <c r="BG1" s="2268" t="s">
+      <c r="BG1" s="3578" t="s">
         <v>13956</v>
       </c>
-      <c r="BH1" s="2268" t="s">
+      <c r="BH1" s="3578" t="s">
         <v>13957</v>
       </c>
-      <c r="BI1" s="2268" t="s">
+      <c r="BI1" s="3578" t="s">
         <v>13958</v>
       </c>
-      <c r="BJ1" s="2268" t="s">
+      <c r="BJ1" s="3578" t="s">
         <v>13998</v>
       </c>
-      <c r="BK1" s="2268" t="s">
+      <c r="BK1" s="3578" t="s">
         <v>13999</v>
       </c>
-      <c r="BL1" s="2268" t="s">
+      <c r="BL1" s="3578" t="s">
         <v>14000</v>
       </c>
-      <c r="BM1" s="2268" t="s">
+      <c r="BM1" s="3578" t="s">
         <v>13959</v>
       </c>
-      <c r="BN1" s="2268" t="s">
+      <c r="BN1" s="3578" t="s">
         <v>13960</v>
       </c>
-      <c r="BO1" s="2268" t="s">
+      <c r="BO1" s="3578" t="s">
         <v>13961</v>
       </c>
-      <c r="BP1" s="2268" t="s">
+      <c r="BP1" s="3578" t="s">
         <v>14001</v>
       </c>
-      <c r="BQ1" s="2268" t="s">
+      <c r="BQ1" s="3578" t="s">
         <v>14002</v>
       </c>
-      <c r="BR1" s="2268" t="s">
+      <c r="BR1" s="3578" t="s">
         <v>14003</v>
       </c>
-      <c r="BS1" s="2268" t="s">
+      <c r="BS1" s="3578" t="s">
         <v>13962</v>
       </c>
-      <c r="BT1" s="2268" t="s">
+      <c r="BT1" s="3578" t="s">
         <v>13963</v>
       </c>
-      <c r="BU1" s="2268" t="s">
+      <c r="BU1" s="3578" t="s">
         <v>13964</v>
       </c>
-      <c r="BV1" s="2268" t="s">
+      <c r="BV1" s="3578" t="s">
         <v>13965</v>
       </c>
-      <c r="BW1" s="2268" t="s">
+      <c r="BW1" s="3578" t="s">
         <v>13966</v>
       </c>
-      <c r="BX1" s="2268" t="s">
+      <c r="BX1" s="3578" t="s">
         <v>13967</v>
       </c>
-      <c r="BY1" s="2268" t="s">
+      <c r="BY1" s="3578" t="s">
         <v>13968</v>
       </c>
-      <c r="BZ1" s="2268" t="s">
+      <c r="BZ1" s="3578" t="s">
         <v>13969</v>
       </c>
-      <c r="CA1" s="2268" t="s">
+      <c r="CA1" s="3578" t="s">
         <v>13970</v>
       </c>
-      <c r="CB1" s="2268" t="s">
+      <c r="CB1" s="3578" t="s">
         <v>13971</v>
       </c>
-      <c r="CC1" s="2268" t="s">
+      <c r="CC1" s="3578" t="s">
         <v>13972</v>
       </c>
-      <c r="CD1" s="2268" t="s">
+      <c r="CD1" s="3578" t="s">
         <v>13973</v>
       </c>
-      <c r="CE1" s="2268" t="s">
+      <c r="CE1" s="3578" t="s">
         <v>13974</v>
       </c>
-      <c r="CF1" s="2268" t="s">
+      <c r="CF1" s="3578" t="s">
         <v>13975</v>
       </c>
-      <c r="CG1" s="2268" t="s">
+      <c r="CG1" s="3578" t="s">
         <v>13976</v>
       </c>
-      <c r="CH1" s="2268" t="s">
+      <c r="CH1" s="3578" t="s">
         <v>14004</v>
       </c>
-      <c r="CI1" s="2268" t="s">
+      <c r="CI1" s="3578" t="s">
         <v>14005</v>
       </c>
-      <c r="CJ1" s="2268" t="s">
+      <c r="CJ1" s="3578" t="s">
         <v>14006</v>
       </c>
-      <c r="CK1" s="2268" t="s">
+      <c r="CK1" s="3578" t="s">
         <v>13977</v>
       </c>
-      <c r="CL1" s="2268" t="s">
+      <c r="CL1" s="3578" t="s">
         <v>13978</v>
       </c>
-      <c r="CM1" s="2268" t="s">
+      <c r="CM1" s="3578" t="s">
         <v>13979</v>
       </c>
-      <c r="CN1" s="2268" t="s">
+      <c r="CN1" s="3578" t="s">
         <v>14007</v>
       </c>
-      <c r="CO1" s="2268" t="s">
+      <c r="CO1" s="3578" t="s">
         <v>14008</v>
       </c>
-      <c r="CP1" s="2268" t="s">
+      <c r="CP1" s="3578" t="s">
         <v>14009</v>
       </c>
-      <c r="CQ1" s="2268" t="s">
+      <c r="CQ1" s="3578" t="s">
         <v>13980</v>
       </c>
-      <c r="CR1" s="2268" t="s">
+      <c r="CR1" s="3578" t="s">
         <v>13981</v>
       </c>
-      <c r="CS1" s="2268" t="s">
+      <c r="CS1" s="3578" t="s">
         <v>13982</v>
       </c>
-      <c r="CT1" s="2268" t="s">
+      <c r="CT1" s="3578" t="s">
         <v>13983</v>
       </c>
-      <c r="CU1" s="2268" t="s">
+      <c r="CU1" s="3578" t="s">
         <v>13984</v>
       </c>
-      <c r="CV1" s="2268" t="s">
+      <c r="CV1" s="3578" t="s">
         <v>13985</v>
       </c>
-      <c r="CW1" s="2268" t="s">
+      <c r="CW1" s="3578" t="s">
         <v>13986</v>
       </c>
-      <c r="CX1" s="2268" t="s">
+      <c r="CX1" s="3578" t="s">
         <v>13987</v>
       </c>
-      <c r="CY1" s="2268" t="s">
+      <c r="CY1" s="3578" t="s">
         <v>13988</v>
       </c>
-      <c r="CZ1" s="2268" t="s">
+      <c r="CZ1" s="3578" t="s">
         <v>13989</v>
       </c>
-      <c r="DA1" s="2268" t="s">
+      <c r="DA1" s="3578" t="s">
         <v>13990</v>
       </c>
-      <c r="DB1" s="2268" t="s">
+      <c r="DB1" s="3578" t="s">
         <v>13991</v>
       </c>
     </row>
@@ -91275,238 +93895,238 @@
         <v>2</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="AD142">
-        <v>0</v>
+        <v>1.7000000476837158</v>
       </c>
       <c r="AE142">
-        <v>0</v>
+        <v>1.7599999904632568</v>
       </c>
       <c r="AF142">
-        <v>0</v>
+        <v>1.4099999666213989</v>
       </c>
       <c r="AG142">
-        <v>0</v>
+        <v>2.130000114440918</v>
       </c>
       <c r="AH142">
-        <v>0</v>
+        <v>1.0800000429153442</v>
       </c>
       <c r="AI142">
-        <v>0</v>
+        <v>301.87303511388984</v>
       </c>
       <c r="AJ142">
-        <v>0</v>
+        <v>1561.3240752285399</v>
       </c>
       <c r="AK142">
-        <v>0</v>
+        <v>398989446.63343412</v>
       </c>
       <c r="AL142">
-        <v>0</v>
+        <v>243.1603150282686</v>
       </c>
       <c r="AM142">
-        <v>0</v>
+        <v>-10.403045371463039</v>
       </c>
       <c r="AN142">
-        <v>0</v>
+        <v>254388861.46686828</v>
       </c>
       <c r="AO142">
-        <v>0</v>
+        <v>239.7998218154107</v>
       </c>
       <c r="AP142">
-        <v>0</v>
+        <v>1206.0707757142009</v>
       </c>
       <c r="AQ142">
-        <v>0</v>
+        <v>147942414.86649793</v>
       </c>
       <c r="AR142">
-        <v>0</v>
+        <v>169.97139236930403</v>
       </c>
       <c r="AS142">
-        <v>0</v>
+        <v>-21.015269295353391</v>
       </c>
       <c r="AT142">
-        <v>0</v>
+        <v>78712580.400562406</v>
       </c>
       <c r="AU142">
-        <v>0</v>
+        <v>72.113367131411792</v>
       </c>
       <c r="AV142">
-        <v>0</v>
+        <v>-7.6488672000752045</v>
       </c>
       <c r="AW142">
-        <v>0</v>
+        <v>23.701052655438239</v>
       </c>
       <c r="AX142">
-        <v>0</v>
+        <v>3372.2782706553794</v>
       </c>
       <c r="AY142">
-        <v>0</v>
+        <v>86.300648383335343</v>
       </c>
       <c r="AZ142">
-        <v>0</v>
+        <v>15.87564509389445</v>
       </c>
       <c r="BA142">
-        <v>0</v>
+        <v>51.828241010756322</v>
       </c>
       <c r="BB142">
-        <v>0</v>
+        <v>7326.5117309416801</v>
       </c>
       <c r="BC142">
-        <v>0</v>
+        <v>5100.1049049666763</v>
       </c>
       <c r="BD142">
-        <v>0</v>
+        <v>93.357191416064779</v>
       </c>
       <c r="BE142">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="BF142">
-        <v>0</v>
+        <v>35.916231725117449</v>
       </c>
       <c r="BG142">
-        <v>0</v>
+        <v>202.65845517923952</v>
       </c>
       <c r="BH142">
-        <v>0</v>
+        <v>1098.7298653570147</v>
       </c>
       <c r="BI142">
-        <v>0</v>
+        <v>602997776.86789238</v>
       </c>
       <c r="BJ142">
-        <v>0</v>
+        <v>166.79869852109044</v>
       </c>
       <c r="BK142">
-        <v>0</v>
+        <v>0.58242636551091898</v>
       </c>
       <c r="BL142">
-        <v>0</v>
+        <v>252844352.91455916</v>
       </c>
       <c r="BM142">
-        <v>0</v>
+        <v>183.38843789682443</v>
       </c>
       <c r="BN142">
-        <v>0</v>
+        <v>601.63184628459237</v>
       </c>
       <c r="BO142">
-        <v>0</v>
+        <v>48944084.241505876</v>
       </c>
       <c r="BP142">
-        <v>0</v>
+        <v>131.694154967977</v>
       </c>
       <c r="BQ142">
-        <v>0</v>
+        <v>-6.9179235302511266</v>
       </c>
       <c r="BR142">
-        <v>0</v>
+        <v>31063305.547518075</v>
       </c>
       <c r="BS142">
-        <v>0</v>
+        <v>100.71181711950501</v>
       </c>
       <c r="BT142">
-        <v>0</v>
+        <v>40.361009162127843</v>
       </c>
       <c r="BU142">
-        <v>0</v>
+        <v>63.263899757475286</v>
       </c>
       <c r="BV142">
-        <v>0</v>
+        <v>13496.504458474308</v>
       </c>
       <c r="BW142">
-        <v>0</v>
+        <v>151.64467109985509</v>
       </c>
       <c r="BX142">
-        <v>0</v>
+        <v>73.852400771659859</v>
       </c>
       <c r="BY142">
-        <v>0</v>
+        <v>118.63432353709354</v>
       </c>
       <c r="BZ142">
-        <v>0</v>
+        <v>25294.383637585994</v>
       </c>
       <c r="CA142">
-        <v>0</v>
+        <v>4261.4421788288555</v>
       </c>
       <c r="CB142">
-        <v>0</v>
+        <v>70.737916738313118</v>
       </c>
       <c r="CC142">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="CD142">
-        <v>0</v>
+        <v>19.913281209480619</v>
       </c>
       <c r="CE142">
-        <v>0</v>
+        <v>383.70621157582224</v>
       </c>
       <c r="CF142">
-        <v>0</v>
+        <v>2318.7117431320057</v>
       </c>
       <c r="CG142">
-        <v>0</v>
+        <v>352623544.25376767</v>
       </c>
       <c r="CH142">
-        <v>0</v>
+        <v>332.11358366945547</v>
       </c>
       <c r="CI142">
-        <v>0</v>
+        <v>7.6340243636239213</v>
       </c>
       <c r="CJ142">
-        <v>0</v>
+        <v>495043797.46232992</v>
       </c>
       <c r="CK142">
-        <v>0</v>
+        <v>325.57616908318431</v>
       </c>
       <c r="CL142">
-        <v>0</v>
+        <v>1800.2457813816059</v>
       </c>
       <c r="CM142">
-        <v>0</v>
+        <v>115210730.18396261</v>
       </c>
       <c r="CN142">
-        <v>0</v>
+        <v>238.90184871038525</v>
       </c>
       <c r="CO142">
-        <v>0</v>
+        <v>-17.783143787933607</v>
       </c>
       <c r="CP142">
-        <v>0</v>
+        <v>214614677.96600622</v>
       </c>
       <c r="CQ142">
-        <v>0</v>
+        <v>46.838582397788372</v>
       </c>
       <c r="CR142">
-        <v>0</v>
+        <v>-8.3198594410911255</v>
       </c>
       <c r="CS142">
-        <v>0</v>
+        <v>12.162956876355418</v>
       </c>
       <c r="CT142">
-        <v>0</v>
+        <v>1333.3318761986036</v>
       </c>
       <c r="CU142">
-        <v>0</v>
+        <v>88.837000233164488</v>
       </c>
       <c r="CV142">
-        <v>0</v>
+        <v>17.87699685212095</v>
       </c>
       <c r="CW142">
-        <v>0</v>
+        <v>53.909717835821148</v>
       </c>
       <c r="CX142">
-        <v>0</v>
+        <v>5836.1924045351188</v>
       </c>
       <c r="CY142">
-        <v>0</v>
+        <v>1778.8845304975657</v>
       </c>
       <c r="CZ142">
-        <v>0</v>
+        <v>37.317583107029293</v>
       </c>
       <c r="DA142">
-        <v>0</v>
+        <v>6.2527760746888816e-13</v>
       </c>
       <c r="DB142">
-        <v>0</v>
+        <v>16.320041564197858</v>
       </c>
     </row>
     <row r="143">
@@ -91595,238 +94215,238 @@
         <v>1</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>1.1499999761581421</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="AE143">
-        <v>0</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="AF143">
-        <v>0</v>
+        <v>1.1299999952316284</v>
       </c>
       <c r="AG143">
-        <v>0</v>
+        <v>1.1100000143051147</v>
       </c>
       <c r="AH143">
-        <v>0</v>
+        <v>0.92000001668930054</v>
       </c>
       <c r="AI143">
-        <v>0</v>
+        <v>369.26186496137723</v>
       </c>
       <c r="AJ143">
-        <v>0</v>
+        <v>2095.0614034901937</v>
       </c>
       <c r="AK143">
-        <v>0</v>
+        <v>1099088767.1950014</v>
       </c>
       <c r="AL143">
-        <v>0</v>
+        <v>320.8355438182989</v>
       </c>
       <c r="AM143">
-        <v>0</v>
+        <v>15.087418597640408</v>
       </c>
       <c r="AN143">
-        <v>0</v>
+        <v>431416189.02407497</v>
       </c>
       <c r="AO143">
-        <v>0</v>
+        <v>312.04057759786798</v>
       </c>
       <c r="AP143">
-        <v>0</v>
+        <v>1645.4499826007143</v>
       </c>
       <c r="AQ143">
-        <v>0</v>
+        <v>196964698.12914822</v>
       </c>
       <c r="AR143">
-        <v>0</v>
+        <v>243.18061421913424</v>
       </c>
       <c r="AS143">
-        <v>0</v>
+        <v>-0.27010734206135711</v>
       </c>
       <c r="AT143">
-        <v>0</v>
+        <v>147221153.48164955</v>
       </c>
       <c r="AU143">
-        <v>0</v>
+        <v>79.366176445349353</v>
       </c>
       <c r="AV143">
-        <v>0</v>
+        <v>41.378810595461786</v>
       </c>
       <c r="AW143">
-        <v>0</v>
+        <v>57.854205378016587</v>
       </c>
       <c r="AX143">
-        <v>0</v>
+        <v>6553.1327678868947</v>
       </c>
       <c r="AY143">
-        <v>0</v>
+        <v>119.25605657088428</v>
       </c>
       <c r="AZ143">
-        <v>0</v>
+        <v>71.525607227018384</v>
       </c>
       <c r="BA143">
-        <v>0</v>
+        <v>99.614516566560582</v>
       </c>
       <c r="BB143">
-        <v>0</v>
+        <v>11265.080060812455</v>
       </c>
       <c r="BC143">
-        <v>0</v>
+        <v>2611.0222309183546</v>
       </c>
       <c r="BD143">
-        <v>0</v>
+        <v>68.605178059115531</v>
       </c>
       <c r="BE143">
-        <v>0</v>
+        <v>4.5474735088646412e-13</v>
       </c>
       <c r="BF143">
-        <v>0</v>
+        <v>22.90370377998557</v>
       </c>
       <c r="BG143">
-        <v>0</v>
+        <v>360.94935953633404</v>
       </c>
       <c r="BH143">
-        <v>0</v>
+        <v>2208.1741137757685</v>
       </c>
       <c r="BI143">
-        <v>0</v>
+        <v>397279927.19054443</v>
       </c>
       <c r="BJ143">
-        <v>0</v>
+        <v>322.99663912630569</v>
       </c>
       <c r="BK143">
-        <v>0</v>
+        <v>3.639776995290585</v>
       </c>
       <c r="BL143">
-        <v>0</v>
+        <v>579701882.95415139</v>
       </c>
       <c r="BM143">
-        <v>0</v>
+        <v>212.12576380404775</v>
       </c>
       <c r="BN143">
-        <v>0</v>
+        <v>1342.6280956071719</v>
       </c>
       <c r="BO143">
-        <v>0</v>
+        <v>153220413.95403063</v>
       </c>
       <c r="BP143">
-        <v>0</v>
+        <v>187.48842438884893</v>
       </c>
       <c r="BQ143">
-        <v>0</v>
+        <v>-16.746810894843886</v>
       </c>
       <c r="BR143">
-        <v>0</v>
+        <v>167918238.82649261</v>
       </c>
       <c r="BS143">
-        <v>0</v>
+        <v>38.676254717401783</v>
       </c>
       <c r="BT143">
-        <v>0</v>
+        <v>-11.580638321970369</v>
       </c>
       <c r="BU143">
-        <v>0</v>
+        <v>9.6025111733661728</v>
       </c>
       <c r="BV143">
-        <v>0</v>
+        <v>1085.2358252138981</v>
       </c>
       <c r="BW143">
-        <v>0</v>
+        <v>60.128274175579939</v>
       </c>
       <c r="BX143">
-        <v>0</v>
+        <v>16.014499285816626</v>
       </c>
       <c r="BY143">
-        <v>0</v>
+        <v>34.472147637904762</v>
       </c>
       <c r="BZ143">
-        <v>0</v>
+        <v>3837.3370181982868</v>
       </c>
       <c r="CA143">
-        <v>0</v>
+        <v>948.39333522899119</v>
       </c>
       <c r="CB143">
-        <v>0</v>
+        <v>34.50888788438391</v>
       </c>
       <c r="CC143">
-        <v>0</v>
+        <v>5.6843418860808015e-13</v>
       </c>
       <c r="CD143">
-        <v>0</v>
+        <v>8.4677976359731488</v>
       </c>
       <c r="CE143">
-        <v>0</v>
+        <v>429.30935918296893</v>
       </c>
       <c r="CF143">
-        <v>0</v>
+        <v>4586.9743859075807</v>
       </c>
       <c r="CG143">
-        <v>0</v>
+        <v>6475215778.6026773</v>
       </c>
       <c r="CH143">
-        <v>0</v>
+        <v>384.36604722204441</v>
       </c>
       <c r="CI143">
-        <v>0</v>
+        <v>1.8609740305158093</v>
       </c>
       <c r="CJ143">
-        <v>0</v>
+        <v>7751916046.937747</v>
       </c>
       <c r="CK143">
-        <v>0</v>
+        <v>316.07349060785504</v>
       </c>
       <c r="CL143">
-        <v>0</v>
+        <v>2290.3124482860367</v>
       </c>
       <c r="CM143">
-        <v>0</v>
+        <v>2837332705.8968701</v>
       </c>
       <c r="CN143">
-        <v>0</v>
+        <v>269.55797164607196</v>
       </c>
       <c r="CO143">
-        <v>0</v>
+        <v>29.629579758931193</v>
       </c>
       <c r="CP143">
-        <v>0</v>
+        <v>1083360351.0903502</v>
       </c>
       <c r="CQ143">
-        <v>0</v>
+        <v>85.70306823982834</v>
       </c>
       <c r="CR143">
-        <v>0</v>
+        <v>40.689141716783944</v>
       </c>
       <c r="CS143">
-        <v>0</v>
+        <v>54.880247142940341</v>
       </c>
       <c r="CT143">
-        <v>0</v>
+        <v>5052.9834636624983</v>
       </c>
       <c r="CU143">
-        <v>0</v>
+        <v>138.00980391159192</v>
       </c>
       <c r="CV143">
-        <v>0</v>
+        <v>87.386291315156001</v>
       </c>
       <c r="CW143">
-        <v>0</v>
+        <v>110.03964186367348</v>
       </c>
       <c r="CX143">
-        <v>0</v>
+        <v>10137.380592914578</v>
       </c>
       <c r="CY143">
-        <v>0</v>
+        <v>1870.8994216264189</v>
       </c>
       <c r="CZ143">
-        <v>0</v>
+        <v>104.33708843586066</v>
       </c>
       <c r="DA143">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="DB143">
-        <v>0</v>
+        <v>20.11719808200451</v>
       </c>
     </row>
     <row r="144">
@@ -91915,238 +94535,238 @@
         <v>2</v>
       </c>
       <c r="AC144">
-        <v>0</v>
+        <v>1.9800000190734863</v>
       </c>
       <c r="AD144">
-        <v>0</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="AF144">
-        <v>0</v>
+        <v>1.4800000190734863</v>
       </c>
       <c r="AG144">
-        <v>0</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="AH144">
-        <v>0</v>
+        <v>1.0800000429153442</v>
       </c>
       <c r="AI144">
-        <v>0</v>
+        <v>291.47604403588127</v>
       </c>
       <c r="AJ144">
-        <v>0</v>
+        <v>1456.8950596200725</v>
       </c>
       <c r="AK144">
-        <v>0</v>
+        <v>148394208.51056406</v>
       </c>
       <c r="AL144">
-        <v>0</v>
+        <v>238.82448883622723</v>
       </c>
       <c r="AM144">
-        <v>0</v>
+        <v>-3.5831256587752551</v>
       </c>
       <c r="AN144">
-        <v>0</v>
+        <v>91729490.23944363</v>
       </c>
       <c r="AO144">
-        <v>0</v>
+        <v>235.48098185418911</v>
       </c>
       <c r="AP144">
-        <v>0</v>
+        <v>1020.8604861773551</v>
       </c>
       <c r="AQ144">
-        <v>0</v>
+        <v>37573316.991369575</v>
       </c>
       <c r="AR144">
-        <v>0</v>
+        <v>164.18026081944177</v>
       </c>
       <c r="AS144">
-        <v>0</v>
+        <v>-9.7948682996456107</v>
       </c>
       <c r="AT144">
-        <v>0</v>
+        <v>45919339.653958276</v>
       </c>
       <c r="AU144">
-        <v>0</v>
+        <v>73.31866850906637</v>
       </c>
       <c r="AV144">
-        <v>0</v>
+        <v>-7.2910075137756083</v>
       </c>
       <c r="AW144">
-        <v>0</v>
+        <v>19.91697738940243</v>
       </c>
       <c r="AX144">
-        <v>0</v>
+        <v>2974.0211006769614</v>
       </c>
       <c r="AY144">
-        <v>0</v>
+        <v>88.49334414944498</v>
       </c>
       <c r="AZ144">
-        <v>0</v>
+        <v>15.636821389116054</v>
       </c>
       <c r="BA144">
-        <v>0</v>
+        <v>50.575804416645155</v>
       </c>
       <c r="BB144">
-        <v>0</v>
+        <v>7501.4458294883416</v>
       </c>
       <c r="BC144">
-        <v>0</v>
+        <v>475.93814173508696</v>
       </c>
       <c r="BD144">
-        <v>0</v>
+        <v>14.509625175582698</v>
       </c>
       <c r="BE144">
-        <v>0</v>
+        <v>4.5474735088646412e-13</v>
       </c>
       <c r="BF144">
-        <v>0</v>
+        <v>3.1942157163428706</v>
       </c>
       <c r="BG144">
-        <v>0</v>
+        <v>410.31288445313362</v>
       </c>
       <c r="BH144">
-        <v>0</v>
+        <v>2970.3151062235838</v>
       </c>
       <c r="BI144">
-        <v>0</v>
+        <v>2383372247.7398658</v>
       </c>
       <c r="BJ144">
-        <v>0</v>
+        <v>367.75903646318028</v>
       </c>
       <c r="BK144">
-        <v>0</v>
+        <v>-16.744779940065257</v>
       </c>
       <c r="BL144">
-        <v>0</v>
+        <v>1825102113.6909173</v>
       </c>
       <c r="BM144">
-        <v>0</v>
+        <v>406.73632767862904</v>
       </c>
       <c r="BN144">
-        <v>0</v>
+        <v>2498.9941212780636</v>
       </c>
       <c r="BO144">
-        <v>0</v>
+        <v>1139705781.2998643</v>
       </c>
       <c r="BP144">
-        <v>0</v>
+        <v>292.88641455268612</v>
       </c>
       <c r="BQ144">
-        <v>0</v>
+        <v>29.505896203360162</v>
       </c>
       <c r="BR144">
-        <v>0</v>
+        <v>251910196.80112314</v>
       </c>
       <c r="BS144">
-        <v>0</v>
+        <v>78.298725542611493</v>
       </c>
       <c r="BT144">
-        <v>0</v>
+        <v>40.204066173332834</v>
       </c>
       <c r="BU144">
-        <v>0</v>
+        <v>53.791569244660543</v>
       </c>
       <c r="BV144">
-        <v>0</v>
+        <v>5284.45133007207</v>
       </c>
       <c r="BW144">
-        <v>0</v>
+        <v>163.90834750450986</v>
       </c>
       <c r="BX144">
-        <v>0</v>
+        <v>72.395810596427282</v>
       </c>
       <c r="BY144">
-        <v>0</v>
+        <v>114.94862957777738</v>
       </c>
       <c r="BZ144">
-        <v>0</v>
+        <v>11284.900834199059</v>
       </c>
       <c r="CA144">
-        <v>0</v>
+        <v>629.22769461245207</v>
       </c>
       <c r="CB144">
-        <v>0</v>
+        <v>24.821742193055002</v>
       </c>
       <c r="CC144">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="CD144">
-        <v>0</v>
+        <v>6.3558352991156841</v>
       </c>
       <c r="CE144">
-        <v>0</v>
+        <v>393.0231111737105</v>
       </c>
       <c r="CF144">
-        <v>0</v>
+        <v>2334.1026101404509</v>
       </c>
       <c r="CG144">
-        <v>0</v>
+        <v>538108694.8555063</v>
       </c>
       <c r="CH144">
-        <v>0</v>
+        <v>333.41561731428459</v>
       </c>
       <c r="CI144">
-        <v>0</v>
+        <v>10.192922831111115</v>
       </c>
       <c r="CJ144">
-        <v>0</v>
+        <v>475059143.2683447</v>
       </c>
       <c r="CK144">
-        <v>0</v>
+        <v>306.84648258243385</v>
       </c>
       <c r="CL144">
-        <v>0</v>
+        <v>1605.0118483674139</v>
       </c>
       <c r="CM144">
-        <v>0</v>
+        <v>128332483.57120636</v>
       </c>
       <c r="CN144">
-        <v>0</v>
+        <v>230.40873358543595</v>
       </c>
       <c r="CO144">
-        <v>0</v>
+        <v>-13.309063025193108</v>
       </c>
       <c r="CP144">
-        <v>0</v>
+        <v>140600028.84658664</v>
       </c>
       <c r="CQ144">
-        <v>0</v>
+        <v>46.306065023014256</v>
       </c>
       <c r="CR144">
-        <v>0</v>
+        <v>-9.0190201684850884</v>
       </c>
       <c r="CS144">
-        <v>0</v>
+        <v>13.033840683759893</v>
       </c>
       <c r="CT144">
-        <v>0</v>
+        <v>1429.1498401963429</v>
       </c>
       <c r="CU144">
-        <v>0</v>
+        <v>75.514239190104703</v>
       </c>
       <c r="CV144">
-        <v>0</v>
+        <v>16.921592295442107</v>
       </c>
       <c r="CW144">
-        <v>0</v>
+        <v>46.540423858404829</v>
       </c>
       <c r="CX144">
-        <v>0</v>
+        <v>5036.7928886037525</v>
       </c>
       <c r="CY144">
-        <v>0</v>
+        <v>3179.9034446930355</v>
       </c>
       <c r="CZ144">
-        <v>0</v>
+        <v>74.393125954367576</v>
       </c>
       <c r="DA144">
-        <v>0</v>
+        <v>2.2737367544323206e-13</v>
       </c>
       <c r="DB144">
-        <v>0</v>
+        <v>29.173426098101242</v>
       </c>
     </row>
     <row r="145">
@@ -92235,238 +94855,232 @@
         <v>1</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>1.4700000286102295</v>
       </c>
       <c r="AD145">
-        <v>0</v>
-      </c>
-      <c r="AE145">
-        <v>0</v>
+        <v>1.1399999856948853</v>
       </c>
       <c r="AF145">
-        <v>0</v>
+        <v>1.4099999666213989</v>
       </c>
       <c r="AG145">
-        <v>0</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
+        <v>1.3700000047683716</v>
       </c>
       <c r="AI145">
-        <v>0</v>
+        <v>281.40363222446422</v>
       </c>
       <c r="AJ145">
-        <v>0</v>
+        <v>1352.4840613719414</v>
       </c>
       <c r="AK145">
-        <v>0</v>
+        <v>275786064.7398752</v>
       </c>
       <c r="AL145">
-        <v>0</v>
+        <v>252.65084766284556</v>
       </c>
       <c r="AM145">
-        <v>0</v>
+        <v>0.027635386263983479</v>
       </c>
       <c r="AN145">
-        <v>0</v>
+        <v>118110193.8223736</v>
       </c>
       <c r="AO145">
-        <v>0</v>
+        <v>174.50478014875844</v>
       </c>
       <c r="AP145">
-        <v>0</v>
+        <v>825.29194629060453</v>
       </c>
       <c r="AQ145">
-        <v>0</v>
+        <v>50498012.093621939</v>
       </c>
       <c r="AR145">
-        <v>0</v>
+        <v>154.54483865679248</v>
       </c>
       <c r="AS145">
-        <v>0</v>
+        <v>-7.9472166176861325</v>
       </c>
       <c r="AT145">
-        <v>0</v>
+        <v>38682611.283564746</v>
       </c>
       <c r="AU145">
-        <v>0</v>
+        <v>77.051801858534944</v>
       </c>
       <c r="AV145">
-        <v>0</v>
+        <v>38.326466779810239</v>
       </c>
       <c r="AW145">
-        <v>0</v>
+        <v>51.065532431212887</v>
       </c>
       <c r="AX145">
-        <v>0</v>
+        <v>7211.3547243119247</v>
       </c>
       <c r="AY145">
-        <v>0</v>
+        <v>104.44715124834222</v>
       </c>
       <c r="AZ145">
-        <v>0</v>
+        <v>70.893238701421481</v>
       </c>
       <c r="BA145">
-        <v>0</v>
+        <v>84.441950932787307</v>
       </c>
       <c r="BB145">
-        <v>0</v>
+        <v>11901.552227031663</v>
       </c>
       <c r="BC145">
-        <v>0</v>
+        <v>2290.3298006333534</v>
       </c>
       <c r="BD145">
-        <v>0</v>
+        <v>55.912337590768971</v>
       </c>
       <c r="BE145">
-        <v>0</v>
+        <v>2.2737367544323206e-13</v>
       </c>
       <c r="BF145">
-        <v>0</v>
+        <v>16.129083103051766</v>
       </c>
       <c r="BG145">
-        <v>0</v>
+        <v>299.949107942323</v>
       </c>
       <c r="BH145">
-        <v>0</v>
+        <v>1476.4216981370871</v>
       </c>
       <c r="BI145">
-        <v>0</v>
+        <v>237559092.30967903</v>
       </c>
       <c r="BJ145">
-        <v>0</v>
+        <v>256.37565481509438</v>
       </c>
       <c r="BK145">
-        <v>0</v>
+        <v>2.3945243550805362</v>
       </c>
       <c r="BL145">
-        <v>0</v>
+        <v>142502276.00494882</v>
       </c>
       <c r="BM145">
-        <v>0</v>
+        <v>236.10675611909832</v>
       </c>
       <c r="BN145">
-        <v>0</v>
+        <v>1070.8257105282446</v>
       </c>
       <c r="BO145">
-        <v>0</v>
+        <v>52237115.896747313</v>
       </c>
       <c r="BP145">
-        <v>0</v>
+        <v>169.34160748369149</v>
       </c>
       <c r="BQ145">
-        <v>0</v>
+        <v>2.1707573903944506</v>
       </c>
       <c r="BR145">
-        <v>0</v>
+        <v>63979674.356758781</v>
       </c>
       <c r="BS145">
-        <v>0</v>
+        <v>43.915472731044353</v>
       </c>
       <c r="BT145">
-        <v>0</v>
+        <v>-7.6068307571798339</v>
       </c>
       <c r="BU145">
-        <v>0</v>
+        <v>12.439955736816859</v>
       </c>
       <c r="BV145">
-        <v>0</v>
+        <v>1723.6243457547882</v>
       </c>
       <c r="BW145">
-        <v>0</v>
+        <v>64.806942681419599</v>
       </c>
       <c r="BX145">
-        <v>0</v>
+        <v>18.200214010948176</v>
       </c>
       <c r="BY145">
-        <v>0</v>
+        <v>42.835379652387203</v>
       </c>
       <c r="BZ145">
-        <v>0</v>
+        <v>5878.9426272476303</v>
       </c>
       <c r="CA145">
-        <v>0</v>
+        <v>2036.4934589928866</v>
       </c>
       <c r="CB145">
-        <v>0</v>
+        <v>38.503264676555261</v>
       </c>
       <c r="CC145">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="CD145">
-        <v>0</v>
+        <v>14.757198978209326</v>
       </c>
       <c r="CE145">
-        <v>0</v>
+        <v>248.54546086043712</v>
       </c>
       <c r="CF145">
-        <v>0</v>
+        <v>1758.9613650765937</v>
       </c>
       <c r="CG145">
-        <v>0</v>
+        <v>1737556800.6761761</v>
       </c>
       <c r="CH145">
-        <v>0</v>
+        <v>217.02065723528111</v>
       </c>
       <c r="CI145">
-        <v>0</v>
+        <v>0.98463406155169764</v>
       </c>
       <c r="CJ145">
-        <v>0</v>
+        <v>828678576.1246022</v>
       </c>
       <c r="CK145">
-        <v>0</v>
+        <v>237.01542047535412</v>
       </c>
       <c r="CL145">
-        <v>0</v>
+        <v>1088.7343601217538</v>
       </c>
       <c r="CM145">
-        <v>0</v>
+        <v>394035649.39099175</v>
       </c>
       <c r="CN145">
-        <v>0</v>
+        <v>168.28930384951056</v>
       </c>
       <c r="CO145">
-        <v>0</v>
+        <v>-1.1458781865964907</v>
       </c>
       <c r="CP145">
-        <v>0</v>
+        <v>209626478.87664273</v>
       </c>
       <c r="CQ145">
-        <v>0</v>
+        <v>85.653934190725977</v>
       </c>
       <c r="CR145">
-        <v>0</v>
+        <v>40.999653296495993</v>
       </c>
       <c r="CS145">
-        <v>0</v>
+        <v>51.886409565868789</v>
       </c>
       <c r="CT145">
-        <v>0</v>
+        <v>8622.8747144370409</v>
       </c>
       <c r="CU145">
-        <v>0</v>
+        <v>175.18423690930462</v>
       </c>
       <c r="CV145">
-        <v>0</v>
+        <v>78.940023279942366</v>
       </c>
       <c r="CW145">
-        <v>0</v>
+        <v>119.6150221398166</v>
       </c>
       <c r="CX145">
-        <v>0</v>
+        <v>19877.131942136501</v>
       </c>
       <c r="CY145">
-        <v>0</v>
+        <v>1330.6686424601669</v>
       </c>
       <c r="CZ145">
-        <v>0</v>
+        <v>49.087630344467016</v>
       </c>
       <c r="DA145">
-        <v>0</v>
+        <v>5.1159076974727213e-13</v>
       </c>
       <c r="DB145">
-        <v>0</v>
+        <v>7.9680757033543026</v>
       </c>
     </row>
     <row r="146">
@@ -92555,238 +95169,238 @@
         <v>2</v>
       </c>
       <c r="AC146">
-        <v>0</v>
+        <v>1.5800000429153442</v>
       </c>
       <c r="AD146">
-        <v>0</v>
+        <v>2.8599998950958252</v>
       </c>
       <c r="AE146">
-        <v>0</v>
+        <v>0.37999999523162842</v>
       </c>
       <c r="AF146">
-        <v>0</v>
+        <v>1.5199999809265137</v>
       </c>
       <c r="AG146">
-        <v>0</v>
+        <v>1.8799999952316284</v>
       </c>
       <c r="AH146">
-        <v>0</v>
+        <v>1.0900000333786011</v>
       </c>
       <c r="AI146">
-        <v>0</v>
+        <v>268.49635223430238</v>
       </c>
       <c r="AJ146">
-        <v>0</v>
+        <v>1292.0167383210155</v>
       </c>
       <c r="AK146">
-        <v>0</v>
+        <v>185266567.28350461</v>
       </c>
       <c r="AL146">
-        <v>0</v>
+        <v>232.0808671425448</v>
       </c>
       <c r="AM146">
-        <v>0</v>
+        <v>-1.1826320792610667</v>
       </c>
       <c r="AN146">
-        <v>0</v>
+        <v>136864082.56048074</v>
       </c>
       <c r="AO146">
-        <v>0</v>
+        <v>215.55448503796745</v>
       </c>
       <c r="AP146">
-        <v>0</v>
+        <v>953.74028253260417</v>
       </c>
       <c r="AQ146">
-        <v>0</v>
+        <v>39053389.913086638</v>
       </c>
       <c r="AR146">
-        <v>0</v>
+        <v>159.26444854110503</v>
       </c>
       <c r="AS146">
-        <v>0</v>
+        <v>-9.7954675268981966</v>
       </c>
       <c r="AT146">
-        <v>0</v>
+        <v>52629153.527347319</v>
       </c>
       <c r="AU146">
-        <v>0</v>
+        <v>47.027717123899031</v>
       </c>
       <c r="AV146">
-        <v>0</v>
+        <v>-8.7938097247598801</v>
       </c>
       <c r="AW146">
-        <v>0</v>
+        <v>11.156476745943179</v>
       </c>
       <c r="AX146">
-        <v>0</v>
+        <v>1714.7578151805164</v>
       </c>
       <c r="AY146">
-        <v>0</v>
+        <v>75.933953161740902</v>
       </c>
       <c r="AZ146">
-        <v>0</v>
+        <v>18.003246472194011</v>
       </c>
       <c r="BA146">
-        <v>0</v>
+        <v>46.109993216820818</v>
       </c>
       <c r="BB146">
-        <v>0</v>
+        <v>7019.7346949936564</v>
       </c>
       <c r="BC146">
-        <v>0</v>
+        <v>689.66814950927233</v>
       </c>
       <c r="BD146">
-        <v>0</v>
+        <v>16.339715673731774</v>
       </c>
       <c r="BE146">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="BF146">
-        <v>0</v>
+        <v>4.5076349641128965</v>
       </c>
       <c r="BG146">
-        <v>0</v>
+        <v>209.2380287936659</v>
       </c>
       <c r="BH146">
-        <v>0</v>
+        <v>1734.1893366584995</v>
       </c>
       <c r="BI146">
-        <v>0</v>
+        <v>2407220566.1398158</v>
       </c>
       <c r="BJ146">
-        <v>0</v>
+        <v>185.18696030410922</v>
       </c>
       <c r="BK146">
-        <v>0</v>
+        <v>3.2997923868436243</v>
       </c>
       <c r="BL146">
-        <v>0</v>
+        <v>5335680541.4869547</v>
       </c>
       <c r="BM146">
-        <v>0</v>
+        <v>141.14154238563867</v>
       </c>
       <c r="BN146">
-        <v>0</v>
+        <v>758.0137758656648</v>
       </c>
       <c r="BO146">
-        <v>0</v>
+        <v>74727019.683179423</v>
       </c>
       <c r="BP146">
-        <v>0</v>
+        <v>125.83345214258122</v>
       </c>
       <c r="BQ146">
-        <v>0</v>
+        <v>26.275941018061722</v>
       </c>
       <c r="BR146">
-        <v>0</v>
+        <v>55509550.78148824</v>
       </c>
       <c r="BS146">
-        <v>0</v>
+        <v>84.27008190050465</v>
       </c>
       <c r="BT146">
-        <v>0</v>
+        <v>41.091828211696395</v>
       </c>
       <c r="BU146">
-        <v>0</v>
+        <v>48.124084096976944</v>
       </c>
       <c r="BV146">
-        <v>0</v>
+        <v>9051.4487090826879</v>
       </c>
       <c r="BW146">
-        <v>0</v>
+        <v>109.18441180408789</v>
       </c>
       <c r="BX146">
-        <v>0</v>
+        <v>77.698768606897218</v>
       </c>
       <c r="BY146">
-        <v>0</v>
+        <v>95.914115115276005</v>
       </c>
       <c r="BZ146">
-        <v>0</v>
+        <v>18042.892926875837</v>
       </c>
       <c r="CA146">
-        <v>0</v>
+        <v>1134.3409302107063</v>
       </c>
       <c r="CB146">
-        <v>0</v>
+        <v>34.156971985400702</v>
       </c>
       <c r="CC146">
         <v>0</v>
       </c>
       <c r="CD146">
-        <v>0</v>
+        <v>6.0018038635487141</v>
       </c>
       <c r="CE146">
-        <v>0</v>
+        <v>365.07653413780275</v>
       </c>
       <c r="CF146">
-        <v>0</v>
+        <v>2508.8413618614791</v>
       </c>
       <c r="CG146">
-        <v>0</v>
+        <v>861599837.40959489</v>
       </c>
       <c r="CH146">
-        <v>0</v>
+        <v>336.27525776510407</v>
       </c>
       <c r="CI146">
-        <v>0</v>
+        <v>1.0911520024464401</v>
       </c>
       <c r="CJ146">
-        <v>0</v>
+        <v>1064162454.3755451</v>
       </c>
       <c r="CK146">
-        <v>0</v>
+        <v>209.33383008303639</v>
       </c>
       <c r="CL146">
-        <v>0</v>
+        <v>1403.7802118824804</v>
       </c>
       <c r="CM146">
-        <v>0</v>
+        <v>262997756.34193534</v>
       </c>
       <c r="CN146">
-        <v>0</v>
+        <v>195.27789639609927</v>
       </c>
       <c r="CO146">
-        <v>0</v>
+        <v>-0.7527568489701314</v>
       </c>
       <c r="CP146">
-        <v>0</v>
+        <v>311373258.28445733</v>
       </c>
       <c r="CQ146">
-        <v>0</v>
+        <v>16.633799898529851</v>
       </c>
       <c r="CR146">
-        <v>0</v>
+        <v>-11.484141213024461</v>
       </c>
       <c r="CS146">
-        <v>0</v>
+        <v>0.30884192373670188</v>
       </c>
       <c r="CT146">
-        <v>0</v>
+        <v>43.945453811944716</v>
       </c>
       <c r="CU146">
-        <v>0</v>
+        <v>50.166906630878053</v>
       </c>
       <c r="CV146">
-        <v>0</v>
+        <v>18.02492895156939</v>
       </c>
       <c r="CW146">
-        <v>0</v>
+        <v>32.876689026488812</v>
       </c>
       <c r="CX146">
-        <v>0</v>
+        <v>3589.6066921689676</v>
       </c>
       <c r="CY146">
-        <v>0</v>
+        <v>1546.7729598861845</v>
       </c>
       <c r="CZ146">
-        <v>0</v>
+        <v>60.441112849791864</v>
       </c>
       <c r="DA146">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="DB146">
-        <v>0</v>
+        <v>14.061572362601675</v>
       </c>
     </row>
     <row r="147">
@@ -92875,238 +95489,238 @@
         <v>1</v>
       </c>
       <c r="AC147">
-        <v>0</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="AD147">
-        <v>0</v>
+        <v>0.51999998092651367</v>
       </c>
       <c r="AE147">
-        <v>0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="AF147">
-        <v>0</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="AG147">
-        <v>0</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="AH147">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AI147">
-        <v>0</v>
+        <v>447.78961736597307</v>
       </c>
       <c r="AJ147">
-        <v>0</v>
+        <v>3946.5674694401309</v>
       </c>
       <c r="AK147">
-        <v>0</v>
+        <v>3063515018.0558577</v>
       </c>
       <c r="AL147">
-        <v>0</v>
+        <v>412.8081561889876</v>
       </c>
       <c r="AM147">
-        <v>0</v>
+        <v>3.7594889302369827</v>
       </c>
       <c r="AN147">
-        <v>0</v>
+        <v>3425889104.3447962</v>
       </c>
       <c r="AO147">
-        <v>0</v>
+        <v>309.49930810269069</v>
       </c>
       <c r="AP147">
-        <v>0</v>
+        <v>2193.7026326650698</v>
       </c>
       <c r="AQ147">
-        <v>0</v>
+        <v>584919774.21420908</v>
       </c>
       <c r="AR147">
-        <v>0</v>
+        <v>292.68271368024301</v>
       </c>
       <c r="AS147">
-        <v>0</v>
+        <v>40.880901261012944</v>
       </c>
       <c r="AT147">
-        <v>0</v>
+        <v>518134321.76148683</v>
       </c>
       <c r="AU147">
-        <v>0</v>
+        <v>64.076111971988098</v>
       </c>
       <c r="AV147">
-        <v>0</v>
+        <v>42.067061388918042</v>
       </c>
       <c r="AW147">
-        <v>0</v>
+        <v>51.236138462207677</v>
       </c>
       <c r="AX147">
-        <v>0</v>
+        <v>4309.5755552361388</v>
       </c>
       <c r="AY147">
-        <v>0</v>
+        <v>108.64822750153643</v>
       </c>
       <c r="AZ147">
-        <v>0</v>
+        <v>72.771297747018565</v>
       </c>
       <c r="BA147">
-        <v>0</v>
+        <v>88.668945934932111</v>
       </c>
       <c r="BB147">
-        <v>0</v>
+        <v>7455.3806347705622</v>
       </c>
       <c r="BC147">
-        <v>0</v>
+        <v>898.07362779721927</v>
       </c>
       <c r="BD147">
-        <v>0</v>
+        <v>42.325490233513847</v>
       </c>
       <c r="BE147">
-        <v>0</v>
+        <v>6.8212102632969618e-13</v>
       </c>
       <c r="BF147">
-        <v>0</v>
+        <v>10.565572091731998</v>
       </c>
       <c r="BG147">
-        <v>0</v>
+        <v>409.48841163745237</v>
       </c>
       <c r="BH147">
-        <v>0</v>
+        <v>2460.9289361409096</v>
       </c>
       <c r="BI147">
-        <v>0</v>
+        <v>652112682.90173888</v>
       </c>
       <c r="BJ147">
-        <v>0</v>
+        <v>372.15180602026294</v>
       </c>
       <c r="BK147">
-        <v>0</v>
+        <v>7.7885952161667866</v>
       </c>
       <c r="BL147">
-        <v>0</v>
+        <v>522786225.18022293</v>
       </c>
       <c r="BM147">
-        <v>0</v>
+        <v>236.07397337590956</v>
       </c>
       <c r="BN147">
-        <v>0</v>
+        <v>1585.0022833778851</v>
       </c>
       <c r="BO147">
-        <v>0</v>
+        <v>270145284.27041686</v>
       </c>
       <c r="BP147">
-        <v>0</v>
+        <v>212.30521818985937</v>
       </c>
       <c r="BQ147">
-        <v>0</v>
+        <v>-1.1685659444924112</v>
       </c>
       <c r="BR147">
-        <v>0</v>
+        <v>316628037.94747925</v>
       </c>
       <c r="BS147">
-        <v>0</v>
+        <v>21.743505197328069</v>
       </c>
       <c r="BT147">
-        <v>0</v>
+        <v>-11.943259708026268</v>
       </c>
       <c r="BU147">
-        <v>0</v>
+        <v>5.096861555876318</v>
       </c>
       <c r="BV147">
-        <v>0</v>
+        <v>519.53485887076795</v>
       </c>
       <c r="BW147">
-        <v>0</v>
+        <v>51.457103572083241</v>
       </c>
       <c r="BX147">
-        <v>0</v>
+        <v>16.134831585827065</v>
       </c>
       <c r="BY147">
-        <v>0</v>
+        <v>32.911933597815349</v>
       </c>
       <c r="BZ147">
-        <v>0</v>
+        <v>3266.3057801679211</v>
       </c>
       <c r="CA147">
-        <v>0</v>
+        <v>472.88624107836756</v>
       </c>
       <c r="CB147">
-        <v>0</v>
+        <v>15.788561690544441</v>
       </c>
       <c r="CC147">
-        <v>0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="CD147">
-        <v>0</v>
+        <v>4.7288624107836821</v>
       </c>
       <c r="CE147">
-        <v>0</v>
+        <v>535.92576570047891</v>
       </c>
       <c r="CF147">
-        <v>0</v>
+        <v>5208.5181864183087</v>
       </c>
       <c r="CG147">
-        <v>0</v>
+        <v>7028877075.5091934</v>
       </c>
       <c r="CH147">
-        <v>0</v>
+        <v>467.37323523886965</v>
       </c>
       <c r="CI147">
-        <v>0</v>
+        <v>20.246163851376302</v>
       </c>
       <c r="CJ147">
-        <v>0</v>
+        <v>7394533951.7665901</v>
       </c>
       <c r="CK147">
-        <v>0</v>
+        <v>313.91222716137275</v>
       </c>
       <c r="CL147">
-        <v>0</v>
+        <v>2290.5037851018628</v>
       </c>
       <c r="CM147">
-        <v>0</v>
+        <v>841221358.92424893</v>
       </c>
       <c r="CN147">
-        <v>0</v>
+        <v>302.96874971298377</v>
       </c>
       <c r="CO147">
-        <v>0</v>
+        <v>14.401813915852436</v>
       </c>
       <c r="CP147">
-        <v>0</v>
+        <v>888040495.86540282</v>
       </c>
       <c r="CQ147">
-        <v>0</v>
+        <v>74.599224869131916</v>
       </c>
       <c r="CR147">
-        <v>0</v>
+        <v>32.919656888477711</v>
       </c>
       <c r="CS147">
-        <v>0</v>
+        <v>51.942172094579291</v>
       </c>
       <c r="CT147">
-        <v>0</v>
+        <v>3910.0713553854307</v>
       </c>
       <c r="CU147">
-        <v>0</v>
+        <v>113.14634523449961</v>
       </c>
       <c r="CV147">
-        <v>0</v>
+        <v>79.259187299923667</v>
       </c>
       <c r="CW147">
-        <v>0</v>
+        <v>96.945923698906839</v>
       </c>
       <c r="CX147">
-        <v>0</v>
+        <v>7271.8328237963042</v>
       </c>
       <c r="CY147">
-        <v>0</v>
+        <v>1795.8127102916458</v>
       </c>
       <c r="CZ147">
-        <v>0</v>
+        <v>89.979926081880024</v>
       </c>
       <c r="DA147">
-        <v>0</v>
+        <v>3.4106051316484809e-13</v>
       </c>
       <c r="DB147">
-        <v>0</v>
+        <v>23.629114609100611</v>
       </c>
     </row>
     <row r="148">
@@ -93195,238 +95809,238 @@
         <v>2</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>1.5099999904632568</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>2.0099999904632568</v>
       </c>
       <c r="AE148">
-        <v>0</v>
+        <v>0.51999998092651367</v>
       </c>
       <c r="AF148">
-        <v>0</v>
+        <v>1.4600000381469727</v>
       </c>
       <c r="AG148">
-        <v>0</v>
+        <v>1.0800000429153442</v>
       </c>
       <c r="AH148">
-        <v>0</v>
+        <v>1.3300000429153442</v>
       </c>
       <c r="AI148">
-        <v>0</v>
+        <v>279.11686459691009</v>
       </c>
       <c r="AJ148">
-        <v>0</v>
+        <v>1685.355800828323</v>
       </c>
       <c r="AK148">
-        <v>0</v>
+        <v>222481714.388906</v>
       </c>
       <c r="AL148">
-        <v>0</v>
+        <v>250.26819533338238</v>
       </c>
       <c r="AM148">
-        <v>0</v>
+        <v>-6.7160967249637782</v>
       </c>
       <c r="AN148">
-        <v>0</v>
+        <v>380496565.10147202</v>
       </c>
       <c r="AO148">
-        <v>0</v>
+        <v>169.65732690663754</v>
       </c>
       <c r="AP148">
-        <v>0</v>
+        <v>988.23681713167718</v>
       </c>
       <c r="AQ148">
-        <v>0</v>
+        <v>82694547.727458239</v>
       </c>
       <c r="AR148">
-        <v>0</v>
+        <v>152.56466552802431</v>
       </c>
       <c r="AS148">
-        <v>0</v>
+        <v>-15.711164490546055</v>
       </c>
       <c r="AT148">
-        <v>0</v>
+        <v>89604978.490283653</v>
       </c>
       <c r="AU148">
-        <v>0</v>
+        <v>37.867316449246367</v>
       </c>
       <c r="AV148">
-        <v>0</v>
+        <v>-11.912706607144875</v>
       </c>
       <c r="AW148">
-        <v>0</v>
+        <v>5.2718952558713124</v>
       </c>
       <c r="AX148">
-        <v>0</v>
+        <v>784.69076627539778</v>
       </c>
       <c r="AY148">
-        <v>0</v>
+        <v>66.720448567994936</v>
       </c>
       <c r="AZ148">
-        <v>0</v>
+        <v>14.114114939293158</v>
       </c>
       <c r="BA148">
-        <v>0</v>
+        <v>39.899765333764421</v>
       </c>
       <c r="BB148">
-        <v>0</v>
+        <v>5834.1533923980996</v>
       </c>
       <c r="BC148">
-        <v>0</v>
+        <v>1828.3538498158759</v>
       </c>
       <c r="BD148">
-        <v>0</v>
+        <v>57.95313055343621</v>
       </c>
       <c r="BE148">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="BF148">
-        <v>0</v>
+        <v>12.437781291264471</v>
       </c>
       <c r="BG148">
-        <v>0</v>
+        <v>402.04830778774499</v>
       </c>
       <c r="BH148">
-        <v>0</v>
+        <v>2936.8879469487647</v>
       </c>
       <c r="BI148">
-        <v>0</v>
+        <v>1090121550.9594054</v>
       </c>
       <c r="BJ148">
-        <v>0</v>
+        <v>335.16176992841952</v>
       </c>
       <c r="BK148">
-        <v>0</v>
+        <v>16.906439278721002</v>
       </c>
       <c r="BL148">
-        <v>0</v>
+        <v>1460744102.7166994</v>
       </c>
       <c r="BM148">
-        <v>0</v>
+        <v>354.83475409372403</v>
       </c>
       <c r="BN148">
-        <v>0</v>
+        <v>2247.0564805364252</v>
       </c>
       <c r="BO148">
-        <v>0</v>
+        <v>281470904.22389066</v>
       </c>
       <c r="BP148">
-        <v>0</v>
+        <v>265.29340204092131</v>
       </c>
       <c r="BQ148">
-        <v>0</v>
+        <v>-0.27130706812540417</v>
       </c>
       <c r="BR148">
-        <v>0</v>
+        <v>464021129.59253657</v>
       </c>
       <c r="BS148">
-        <v>0</v>
+        <v>74.446038392152886</v>
       </c>
       <c r="BT148">
-        <v>0</v>
+        <v>42.590230619722163</v>
       </c>
       <c r="BU148">
-        <v>0</v>
+        <v>59.834683725865368</v>
       </c>
       <c r="BV148">
-        <v>0</v>
+        <v>6478.6397110390908</v>
       </c>
       <c r="BW148">
-        <v>0</v>
+        <v>133.65897219697587</v>
       </c>
       <c r="BX148">
-        <v>0</v>
+        <v>69.410148846180562</v>
       </c>
       <c r="BY148">
-        <v>0</v>
+        <v>100.78018121037596</v>
       </c>
       <c r="BZ148">
-        <v>0</v>
+        <v>10895.141135079515</v>
       </c>
       <c r="CA148">
-        <v>0</v>
+        <v>2377.2732091500616</v>
       </c>
       <c r="CB148">
-        <v>0</v>
+        <v>70.05887698199831</v>
       </c>
       <c r="CC148">
-        <v>0</v>
+        <v>4.5474735088646412e-13</v>
       </c>
       <c r="CD148">
-        <v>0</v>
+        <v>21.80984595550516</v>
       </c>
       <c r="CE148">
-        <v>0</v>
+        <v>324.00277393592086</v>
       </c>
       <c r="CF148">
-        <v>0</v>
+        <v>1927.8527062538515</v>
       </c>
       <c r="CG148">
-        <v>0</v>
+        <v>572282082.59970903</v>
       </c>
       <c r="CH148">
-        <v>0</v>
+        <v>266.0053520237671</v>
       </c>
       <c r="CI148">
-        <v>0</v>
+        <v>17.744406073145971</v>
       </c>
       <c r="CJ148">
-        <v>0</v>
+        <v>317480817.75054288</v>
       </c>
       <c r="CK148">
-        <v>0</v>
+        <v>271.90264185561801</v>
       </c>
       <c r="CL148">
-        <v>0</v>
+        <v>1486.6668796851789</v>
       </c>
       <c r="CM148">
-        <v>0</v>
+        <v>183380449.5210104</v>
       </c>
       <c r="CN148">
-        <v>0</v>
+        <v>186.03773765957098</v>
       </c>
       <c r="CO148">
-        <v>0</v>
+        <v>11.593845156157766</v>
       </c>
       <c r="CP148">
-        <v>0</v>
+        <v>123856273.49295974</v>
       </c>
       <c r="CQ148">
-        <v>0</v>
+        <v>62.277764187965786</v>
       </c>
       <c r="CR148">
-        <v>0</v>
+        <v>-9.0968099207379574</v>
       </c>
       <c r="CS148">
-        <v>0</v>
+        <v>14.180861374690673</v>
       </c>
       <c r="CT148">
-        <v>0</v>
+        <v>1908.7000968858431</v>
       </c>
       <c r="CU148">
-        <v>0</v>
+        <v>88.505554603207301</v>
       </c>
       <c r="CV148">
-        <v>0</v>
+        <v>15.411160838494824</v>
       </c>
       <c r="CW148">
-        <v>0</v>
+        <v>49.591723062523457</v>
       </c>
       <c r="CX148">
-        <v>0</v>
+        <v>6607.1727085057937</v>
       </c>
       <c r="CY148">
-        <v>0</v>
+        <v>2018.5628806722491</v>
       </c>
       <c r="CZ148">
-        <v>0</v>
+        <v>50.57917614472143</v>
       </c>
       <c r="DA148">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="DB148">
-        <v>0</v>
+        <v>15.063902094569023</v>
       </c>
     </row>
     <row r="149">
@@ -93515,238 +96129,238 @@
         <v>1</v>
       </c>
       <c r="AC149">
-        <v>0</v>
+        <v>0.28999999165534973</v>
       </c>
       <c r="AD149">
-        <v>0</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="AE149">
-        <v>0</v>
+        <v>0.23999999463558197</v>
       </c>
       <c r="AF149">
-        <v>0</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="AG149">
-        <v>0</v>
+        <v>1.0499999523162842</v>
       </c>
       <c r="AH149">
-        <v>0</v>
+        <v>0.79000002145767212</v>
       </c>
       <c r="AI149">
-        <v>0</v>
+        <v>492.63112631465918</v>
       </c>
       <c r="AJ149">
-        <v>0</v>
+        <v>3644.7590846747967</v>
       </c>
       <c r="AK149">
-        <v>0</v>
+        <v>1895755465.694766</v>
       </c>
       <c r="AL149">
-        <v>0</v>
+        <v>443.77991208354928</v>
       </c>
       <c r="AM149">
-        <v>0</v>
+        <v>3.0686190879925883</v>
       </c>
       <c r="AN149">
-        <v>0</v>
+        <v>1721908327.8739014</v>
       </c>
       <c r="AO149">
-        <v>0</v>
+        <v>464.65022528197414</v>
       </c>
       <c r="AP149">
-        <v>0</v>
+        <v>3014.3215558376319</v>
       </c>
       <c r="AQ149">
-        <v>0</v>
+        <v>1658247578.5295334</v>
       </c>
       <c r="AR149">
-        <v>0</v>
+        <v>360.92207598531928</v>
       </c>
       <c r="AS149">
-        <v>0</v>
+        <v>98.987199875429482</v>
       </c>
       <c r="AT149">
-        <v>0</v>
+        <v>439370823.01846665</v>
       </c>
       <c r="AU149">
-        <v>0</v>
+        <v>76.886132664265077</v>
       </c>
       <c r="AV149">
-        <v>0</v>
+        <v>40.320578711128775</v>
       </c>
       <c r="AW149">
-        <v>0</v>
+        <v>55.299762519697403</v>
       </c>
       <c r="AX149">
-        <v>0</v>
+        <v>4659.5831007399838</v>
       </c>
       <c r="AY149">
-        <v>0</v>
+        <v>153.79098486662429</v>
       </c>
       <c r="AZ149">
-        <v>0</v>
+        <v>77.088686472494416</v>
       </c>
       <c r="BA149">
-        <v>0</v>
+        <v>117.46164720278128</v>
       </c>
       <c r="BB149">
-        <v>0</v>
+        <v>9881.8231989520082</v>
       </c>
       <c r="BC149">
-        <v>0</v>
+        <v>378.11951258140562</v>
       </c>
       <c r="BD149">
-        <v>0</v>
+        <v>20.761879066450717</v>
       </c>
       <c r="BE149">
         <v>0</v>
       </c>
       <c r="BF149">
-        <v>0</v>
+        <v>4.4484648538988933</v>
       </c>
       <c r="BG149">
-        <v>0</v>
+        <v>401.66975843279312</v>
       </c>
       <c r="BH149">
-        <v>0</v>
+        <v>2233.8219074590197</v>
       </c>
       <c r="BI149">
-        <v>0</v>
+        <v>645520928.79287791</v>
       </c>
       <c r="BJ149">
-        <v>0</v>
+        <v>339.22442631704519</v>
       </c>
       <c r="BK149">
-        <v>0</v>
+        <v>13.050135768250799</v>
       </c>
       <c r="BL149">
-        <v>0</v>
+        <v>461909191.43427253</v>
       </c>
       <c r="BM149">
-        <v>0</v>
+        <v>319.84231124349634</v>
       </c>
       <c r="BN149">
-        <v>0</v>
+        <v>1668.0377543771942</v>
       </c>
       <c r="BO149">
-        <v>0</v>
+        <v>241213977.31833029</v>
       </c>
       <c r="BP149">
-        <v>0</v>
+        <v>246.56373978497572</v>
       </c>
       <c r="BQ149">
-        <v>0</v>
+        <v>18.99246902975295</v>
       </c>
       <c r="BR149">
-        <v>0</v>
+        <v>116145723.98473446</v>
       </c>
       <c r="BS149">
-        <v>0</v>
+        <v>54.974177897486491</v>
       </c>
       <c r="BT149">
-        <v>0</v>
+        <v>-8.5110189307126376</v>
       </c>
       <c r="BU149">
-        <v>0</v>
+        <v>17.720466377147314</v>
       </c>
       <c r="BV149">
-        <v>0</v>
+        <v>1886.1299822189656</v>
       </c>
       <c r="BW149">
-        <v>0</v>
+        <v>73.866738529086348</v>
       </c>
       <c r="BX149">
-        <v>0</v>
+        <v>16.213068044618232</v>
       </c>
       <c r="BY149">
-        <v>0</v>
+        <v>43.003285410434358</v>
       </c>
       <c r="BZ149">
-        <v>0</v>
+        <v>4523.7354394737595</v>
       </c>
       <c r="CA149">
-        <v>0</v>
+        <v>3985.1683955968647</v>
       </c>
       <c r="CB149">
-        <v>0</v>
+        <v>101.40246438497883</v>
       </c>
       <c r="CC149">
-        <v>0</v>
+        <v>4.5474735088646412e-13</v>
       </c>
       <c r="CD149">
-        <v>0</v>
+        <v>37.595928260347783</v>
       </c>
       <c r="CE149">
-        <v>0</v>
+        <v>528.02961834491975</v>
       </c>
       <c r="CF149">
-        <v>0</v>
+        <v>5345.3927303019536</v>
       </c>
       <c r="CG149">
-        <v>0</v>
+        <v>10811776333.767937</v>
       </c>
       <c r="CH149">
-        <v>0</v>
+        <v>457.96849992261895</v>
       </c>
       <c r="CI149">
-        <v>0</v>
+        <v>-16.079507245399224</v>
       </c>
       <c r="CJ149">
-        <v>0</v>
+        <v>8749698352.1525555</v>
       </c>
       <c r="CK149">
-        <v>0</v>
+        <v>465.42013556187294</v>
       </c>
       <c r="CL149">
-        <v>0</v>
+        <v>3383.4170168549099</v>
       </c>
       <c r="CM149">
-        <v>0</v>
+        <v>1732230924.6128838</v>
       </c>
       <c r="CN149">
-        <v>0</v>
+        <v>353.27617056290489</v>
       </c>
       <c r="CO149">
-        <v>0</v>
+        <v>13.416675209724326</v>
       </c>
       <c r="CP149">
-        <v>0</v>
+        <v>1161526026.413456</v>
       </c>
       <c r="CQ149">
-        <v>0</v>
+        <v>81.250489076472476</v>
       </c>
       <c r="CR149">
-        <v>0</v>
+        <v>40.382331590317037</v>
       </c>
       <c r="CS149">
-        <v>0</v>
+        <v>54.067600640430932</v>
       </c>
       <c r="CT149">
-        <v>0</v>
+        <v>4282.0302862805765</v>
       </c>
       <c r="CU149">
-        <v>0</v>
+        <v>151.581074237276</v>
       </c>
       <c r="CV149">
-        <v>0</v>
+        <v>77.458324621838955</v>
       </c>
       <c r="CW149">
-        <v>0</v>
+        <v>111.67713560404761</v>
       </c>
       <c r="CX149">
-        <v>0</v>
+        <v>8836.2841241983715</v>
       </c>
       <c r="CY149">
-        <v>0</v>
+        <v>453.67703913278046</v>
       </c>
       <c r="CZ149">
-        <v>0</v>
+        <v>29.867037103184259</v>
       </c>
       <c r="DA149">
-        <v>0</v>
+        <v>9.9475983006414026e-14</v>
       </c>
       <c r="DB149">
-        <v>0</v>
+        <v>5.6709629891597571</v>
       </c>
     </row>
     <row r="150">
@@ -93835,238 +96449,232 @@
         <v>2</v>
       </c>
       <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AD150">
-        <v>0</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="AE150">
-        <v>0</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="AF150">
-        <v>0</v>
-      </c>
-      <c r="AG150">
-        <v>0</v>
+        <v>1.1100000143051147</v>
       </c>
       <c r="AH150">
-        <v>0</v>
+        <v>1.3600000143051147</v>
       </c>
       <c r="AI150">
-        <v>0</v>
+        <v>345.86106939073437</v>
       </c>
       <c r="AJ150">
-        <v>0</v>
+        <v>2196.9436891491928</v>
       </c>
       <c r="AK150">
-        <v>0</v>
+        <v>675672827.04946291</v>
       </c>
       <c r="AL150">
-        <v>0</v>
+        <v>307.13770775357807</v>
       </c>
       <c r="AM150">
-        <v>0</v>
+        <v>-4.252335762782268</v>
       </c>
       <c r="AN150">
-        <v>0</v>
+        <v>645559670.69100451</v>
       </c>
       <c r="AO150">
-        <v>0</v>
+        <v>285.78536273647967</v>
       </c>
       <c r="AP150">
-        <v>0</v>
+        <v>1759.3306324029459</v>
       </c>
       <c r="AQ150">
-        <v>0</v>
+        <v>258845076.9610464</v>
       </c>
       <c r="AR150">
-        <v>0</v>
+        <v>208.83841780845083</v>
       </c>
       <c r="AS150">
-        <v>0</v>
+        <v>-4.6648829772319687</v>
       </c>
       <c r="AT150">
-        <v>0</v>
+        <v>229494910.74004087</v>
       </c>
       <c r="AU150">
-        <v>0</v>
+        <v>38.691694029974997</v>
       </c>
       <c r="AV150">
-        <v>0</v>
+        <v>-8.0685374370170972</v>
       </c>
       <c r="AW150">
-        <v>0</v>
+        <v>6.4992950005302115</v>
       </c>
       <c r="AX150">
-        <v>0</v>
+        <v>735.22873801496723</v>
       </c>
       <c r="AY150">
-        <v>0</v>
+        <v>79.632045701799768</v>
       </c>
       <c r="AZ150">
-        <v>0</v>
+        <v>16.817865793671459</v>
       </c>
       <c r="BA150">
-        <v>0</v>
+        <v>47.683948484610156</v>
       </c>
       <c r="BB150">
-        <v>0</v>
+        <v>5302.4574007446427</v>
       </c>
       <c r="BC150">
-        <v>0</v>
+        <v>834.32241412242024</v>
       </c>
       <c r="BD150">
-        <v>0</v>
+        <v>23.614293155618384</v>
       </c>
       <c r="BE150">
-        <v>0</v>
+        <v>7.3896444519050419e-13</v>
       </c>
       <c r="BF150">
-        <v>0</v>
+        <v>7.4493072689501885</v>
       </c>
       <c r="BG150">
-        <v>0</v>
+        <v>432.47312228020769</v>
       </c>
       <c r="BH150">
-        <v>0</v>
+        <v>3764.1025079068199</v>
       </c>
       <c r="BI150">
-        <v>0</v>
+        <v>5671036584.2861986</v>
       </c>
       <c r="BJ150">
-        <v>0</v>
+        <v>380.85847598408412</v>
       </c>
       <c r="BK150">
-        <v>0</v>
+        <v>13.013995014693782</v>
       </c>
       <c r="BL150">
-        <v>0</v>
+        <v>3910949574.5288815</v>
       </c>
       <c r="BM150">
-        <v>0</v>
+        <v>395.43501871453753</v>
       </c>
       <c r="BN150">
-        <v>0</v>
+        <v>2401.5571299448197</v>
       </c>
       <c r="BO150">
-        <v>0</v>
+        <v>6884736829.718667</v>
       </c>
       <c r="BP150">
-        <v>0</v>
+        <v>306.13971136403143</v>
       </c>
       <c r="BQ150">
-        <v>0</v>
+        <v>71.239844492218779</v>
       </c>
       <c r="BR150">
-        <v>0</v>
+        <v>990929321.15265799</v>
       </c>
       <c r="BS150">
-        <v>0</v>
+        <v>89.364806818803388</v>
       </c>
       <c r="BT150">
-        <v>0</v>
+        <v>40.569694983918708</v>
       </c>
       <c r="BU150">
-        <v>0</v>
+        <v>54.750485789528931</v>
       </c>
       <c r="BV150">
-        <v>0</v>
+        <v>5214.1100386281178</v>
       </c>
       <c r="BW150">
-        <v>0</v>
+        <v>154.92067939734991</v>
       </c>
       <c r="BX150">
-        <v>0</v>
+        <v>83.285806342790579</v>
       </c>
       <c r="BY150">
-        <v>0</v>
+        <v>115.64255873549963</v>
       </c>
       <c r="BZ150">
-        <v>0</v>
+        <v>11003.533721990352</v>
       </c>
       <c r="CA150">
-        <v>0</v>
+        <v>352.89483726142441</v>
       </c>
       <c r="CB150">
-        <v>0</v>
+        <v>16.078056503092455</v>
       </c>
       <c r="CC150">
         <v>0</v>
       </c>
       <c r="CD150">
-        <v>0</v>
+        <v>3.6759878881398431</v>
       </c>
       <c r="CE150">
-        <v>0</v>
+        <v>358.60973310448873</v>
       </c>
       <c r="CF150">
-        <v>0</v>
+        <v>2951.521720683219</v>
       </c>
       <c r="CG150">
-        <v>0</v>
+        <v>2280757961.069912</v>
       </c>
       <c r="CH150">
-        <v>0</v>
+        <v>269.24022579010312</v>
       </c>
       <c r="CI150">
-        <v>0</v>
+        <v>4.7250304789553228</v>
       </c>
       <c r="CJ150">
-        <v>0</v>
+        <v>1350671298.1140988</v>
       </c>
       <c r="CK150">
-        <v>0</v>
+        <v>298.33102244876682</v>
       </c>
       <c r="CL150">
-        <v>0</v>
+        <v>2120.8399787053399</v>
       </c>
       <c r="CM150">
-        <v>0</v>
+        <v>469500720.89501238</v>
       </c>
       <c r="CN150">
-        <v>0</v>
+        <v>192.31641958293432</v>
       </c>
       <c r="CO150">
-        <v>0</v>
+        <v>48.623808714851691</v>
       </c>
       <c r="CP150">
-        <v>0</v>
+        <v>382320824.9877094</v>
       </c>
       <c r="CQ150">
-        <v>0</v>
+        <v>27.089487905552438</v>
       </c>
       <c r="CR150">
-        <v>0</v>
+        <v>-8.8405628613217626</v>
       </c>
       <c r="CS150">
-        <v>0</v>
+        <v>6.0544938239218213</v>
       </c>
       <c r="CT150">
-        <v>0</v>
+        <v>835.7545983147744</v>
       </c>
       <c r="CU150">
-        <v>0</v>
+        <v>76.636068850870359</v>
       </c>
       <c r="CV150">
-        <v>0</v>
+        <v>19.178629914128262</v>
       </c>
       <c r="CW150">
-        <v>0</v>
+        <v>54.320375392267835</v>
       </c>
       <c r="CX150">
-        <v>0</v>
+        <v>7398.2466832132832</v>
       </c>
       <c r="CY150">
-        <v>0</v>
+        <v>2094.4367007667406</v>
       </c>
       <c r="CZ150">
-        <v>0</v>
+        <v>54.879753037356579</v>
       </c>
       <c r="DA150">
-        <v>0</v>
+        <v>3.4106051316484809e-13</v>
       </c>
       <c r="DB150">
-        <v>0</v>
+        <v>15.287859129684238</v>
       </c>
     </row>
     <row r="151">
@@ -94155,238 +96763,238 @@
         <v>1</v>
       </c>
       <c r="AC151">
-        <v>0</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="AD151">
-        <v>0</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="AE151">
-        <v>0</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="AF151">
-        <v>0</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="AG151">
-        <v>0</v>
+        <v>1.0299999713897705</v>
       </c>
       <c r="AH151">
-        <v>0</v>
+        <v>0.77999997138977051</v>
       </c>
       <c r="AI151">
-        <v>0</v>
+        <v>417.1205734670238</v>
       </c>
       <c r="AJ151">
-        <v>0</v>
+        <v>3109.6092431417273</v>
       </c>
       <c r="AK151">
-        <v>0</v>
+        <v>1781218796.8464503</v>
       </c>
       <c r="AL151">
-        <v>0</v>
+        <v>378.18203423602137</v>
       </c>
       <c r="AM151">
-        <v>0</v>
+        <v>-0.7781590981533949</v>
       </c>
       <c r="AN151">
-        <v>0</v>
+        <v>1863329986.7225015</v>
       </c>
       <c r="AO151">
-        <v>0</v>
+        <v>401.91634557428114</v>
       </c>
       <c r="AP151">
-        <v>0</v>
+        <v>2498.0295321004078</v>
       </c>
       <c r="AQ151">
-        <v>0</v>
+        <v>545772713.64820206</v>
       </c>
       <c r="AR151">
-        <v>0</v>
+        <v>295.73977949422783</v>
       </c>
       <c r="AS151">
-        <v>0</v>
+        <v>-24.005637997097786</v>
       </c>
       <c r="AT151">
-        <v>0</v>
+        <v>349768925.50870222</v>
       </c>
       <c r="AU151">
-        <v>0</v>
+        <v>65.394833333803959</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>40.547815221015604</v>
       </c>
       <c r="AW151">
-        <v>0</v>
+        <v>49.53794766358201</v>
       </c>
       <c r="AX151">
-        <v>0</v>
+        <v>4862.7884096352664</v>
       </c>
       <c r="AY151">
-        <v>0</v>
+        <v>156.3608912635687</v>
       </c>
       <c r="AZ151">
-        <v>0</v>
+        <v>72.123716678565813</v>
       </c>
       <c r="BA151">
-        <v>0</v>
+        <v>110.35638350145243</v>
       </c>
       <c r="BB151">
-        <v>0</v>
+        <v>10835.34325825047</v>
       </c>
       <c r="BC151">
-        <v>0</v>
+        <v>571.81766854854743</v>
       </c>
       <c r="BD151">
-        <v>0</v>
+        <v>19.454703013710457</v>
       </c>
       <c r="BE151">
-        <v>0</v>
+        <v>5.1159076974727213e-13</v>
       </c>
       <c r="BF151">
-        <v>0</v>
+        <v>5.7759360459449312</v>
       </c>
       <c r="BG151">
-        <v>0</v>
+        <v>401.90286361254709</v>
       </c>
       <c r="BH151">
-        <v>0</v>
+        <v>2706.494430621186</v>
       </c>
       <c r="BI151">
-        <v>0</v>
+        <v>1088377747.1468229</v>
       </c>
       <c r="BJ151">
-        <v>0</v>
+        <v>342.13449028015839</v>
       </c>
       <c r="BK151">
-        <v>0</v>
+        <v>11.170338727813995</v>
       </c>
       <c r="BL151">
-        <v>0</v>
+        <v>829591163.10316157</v>
       </c>
       <c r="BM151">
-        <v>0</v>
+        <v>330.27178024895926</v>
       </c>
       <c r="BN151">
-        <v>0</v>
+        <v>1761.4078689609544</v>
       </c>
       <c r="BO151">
-        <v>0</v>
+        <v>218957799.59185639</v>
       </c>
       <c r="BP151">
-        <v>0</v>
+        <v>230.50228294409729</v>
       </c>
       <c r="BQ151">
-        <v>0</v>
+        <v>17.015599576076145</v>
       </c>
       <c r="BR151">
-        <v>0</v>
+        <v>167291730.30801928</v>
       </c>
       <c r="BS151">
-        <v>0</v>
+        <v>46.481801682266109</v>
       </c>
       <c r="BT151">
-        <v>0</v>
+        <v>-8.8853353912328057</v>
       </c>
       <c r="BU151">
-        <v>0</v>
+        <v>10.246845309397921</v>
       </c>
       <c r="BV151">
-        <v>0</v>
+        <v>1073.8304471595002</v>
       </c>
       <c r="BW151">
-        <v>0</v>
+        <v>82.784488012283219</v>
       </c>
       <c r="BX151">
-        <v>0</v>
+        <v>17.893671848436245</v>
       </c>
       <c r="BY151">
-        <v>0</v>
+        <v>50.289444088206437</v>
       </c>
       <c r="BZ151">
-        <v>0</v>
+        <v>5193.7779969384683</v>
       </c>
       <c r="CA151">
-        <v>0</v>
+        <v>1092.7851374145041</v>
       </c>
       <c r="CB151">
-        <v>0</v>
+        <v>38.670422541164442</v>
       </c>
       <c r="CC151">
-        <v>0</v>
+        <v>5.1159076974727213e-13</v>
       </c>
       <c r="CD151">
-        <v>0</v>
+        <v>10.507549398216387</v>
       </c>
       <c r="CE151">
-        <v>0</v>
+        <v>545.10440433311521</v>
       </c>
       <c r="CF151">
-        <v>0</v>
+        <v>5068.2535806814294</v>
       </c>
       <c r="CG151">
-        <v>0</v>
+        <v>6535071104.8583851</v>
       </c>
       <c r="CH151">
-        <v>0</v>
+        <v>490.13998329322249</v>
       </c>
       <c r="CI151">
-        <v>0</v>
+        <v>-7.9088333769801302</v>
       </c>
       <c r="CJ151">
-        <v>0</v>
+        <v>6695839050.4025679</v>
       </c>
       <c r="CK151">
-        <v>0</v>
+        <v>490.46529683253056</v>
       </c>
       <c r="CL151">
-        <v>0</v>
+        <v>3474.5854751415677</v>
       </c>
       <c r="CM151">
-        <v>0</v>
+        <v>2683901366.2289381</v>
       </c>
       <c r="CN151">
-        <v>0</v>
+        <v>382.69980045972511</v>
       </c>
       <c r="CO151">
-        <v>0</v>
+        <v>66.903665327245506</v>
       </c>
       <c r="CP151">
-        <v>0</v>
+        <v>1314621555.9811528</v>
       </c>
       <c r="CQ151">
-        <v>0</v>
+        <v>75.696885502996963</v>
       </c>
       <c r="CR151">
-        <v>0</v>
+        <v>40.137142081860723</v>
       </c>
       <c r="CS151">
-        <v>0</v>
+        <v>52.972353920390262</v>
       </c>
       <c r="CT151">
-        <v>0</v>
+        <v>4143.8428081716638</v>
       </c>
       <c r="CU151">
-        <v>0</v>
+        <v>158.57261848496202</v>
       </c>
       <c r="CV151">
-        <v>0</v>
+        <v>87.597717151305631</v>
       </c>
       <c r="CW151">
-        <v>0</v>
+        <v>120.73779809593751</v>
       </c>
       <c r="CX151">
-        <v>0</v>
+        <v>9430.7745837242855</v>
       </c>
       <c r="CY151">
-        <v>0</v>
+        <v>680.21647574436849</v>
       </c>
       <c r="CZ151">
-        <v>0</v>
+        <v>27.729056558511019</v>
       </c>
       <c r="DA151">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="DB151">
-        <v>0</v>
+        <v>8.6103351360046663</v>
       </c>
     </row>
     <row r="152">
@@ -94475,238 +97083,238 @@
         <v>2</v>
       </c>
       <c r="AC152">
-        <v>0</v>
+        <v>0.36000001430511475</v>
       </c>
       <c r="AD152">
-        <v>0</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="AE152">
-        <v>0</v>
+        <v>0.37999999523162842</v>
       </c>
       <c r="AF152">
-        <v>0</v>
+        <v>1.2400000095367432</v>
       </c>
       <c r="AG152">
-        <v>0</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="AH152">
-        <v>0</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="AI152">
-        <v>0</v>
+        <v>319.67227376369254</v>
       </c>
       <c r="AJ152">
-        <v>0</v>
+        <v>1806.1058136602737</v>
       </c>
       <c r="AK152">
-        <v>0</v>
+        <v>303225176.89435148</v>
       </c>
       <c r="AL152">
-        <v>0</v>
+        <v>291.27105505240462</v>
       </c>
       <c r="AM152">
-        <v>0</v>
+        <v>-8.6243826693407684</v>
       </c>
       <c r="AN152">
-        <v>0</v>
+        <v>274117934.82069516</v>
       </c>
       <c r="AO152">
-        <v>0</v>
+        <v>274.44495352321849</v>
       </c>
       <c r="AP152">
-        <v>0</v>
+        <v>1486.7237871388636</v>
       </c>
       <c r="AQ152">
-        <v>0</v>
+        <v>156378238.57381898</v>
       </c>
       <c r="AR152">
-        <v>0</v>
+        <v>202.19849875735812</v>
       </c>
       <c r="AS152">
-        <v>0</v>
+        <v>-2.3051805358569761</v>
       </c>
       <c r="AT152">
-        <v>0</v>
+        <v>144209934.03452516</v>
       </c>
       <c r="AU152">
-        <v>0</v>
+        <v>25.800482951442724</v>
       </c>
       <c r="AV152">
-        <v>0</v>
+        <v>-8.3313985976101446</v>
       </c>
       <c r="AW152">
-        <v>0</v>
+        <v>1.150539738582862</v>
       </c>
       <c r="AX152">
-        <v>0</v>
+        <v>151.12665927334083</v>
       </c>
       <c r="AY152">
-        <v>0</v>
+        <v>68.210308015241651</v>
       </c>
       <c r="AZ152">
-        <v>0</v>
+        <v>16.06418909349815</v>
       </c>
       <c r="BA152">
-        <v>0</v>
+        <v>41.15650649676504</v>
       </c>
       <c r="BB152">
-        <v>0</v>
+        <v>5112.1822542250002</v>
       </c>
       <c r="BC152">
-        <v>0</v>
+        <v>752.45720834274448</v>
       </c>
       <c r="BD152">
-        <v>0</v>
+        <v>21.490524226320247</v>
       </c>
       <c r="BE152">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="BF152">
-        <v>0</v>
+        <v>6.0196576667419617</v>
       </c>
       <c r="BG152">
-        <v>0</v>
+        <v>457.58760596095186</v>
       </c>
       <c r="BH152">
-        <v>0</v>
+        <v>3547.3058082883244</v>
       </c>
       <c r="BI152">
-        <v>0</v>
+        <v>2096451576.1992049</v>
       </c>
       <c r="BJ152">
-        <v>0</v>
+        <v>412.09528147893093</v>
       </c>
       <c r="BK152">
-        <v>0</v>
+        <v>0.83152503658532928</v>
       </c>
       <c r="BL152">
-        <v>0</v>
+        <v>2442827345.2223196</v>
       </c>
       <c r="BM152">
-        <v>0</v>
+        <v>450.30008818153516</v>
       </c>
       <c r="BN152">
-        <v>0</v>
+        <v>3027.9619238168111</v>
       </c>
       <c r="BO152">
-        <v>0</v>
+        <v>982898368.21136534</v>
       </c>
       <c r="BP152">
-        <v>0</v>
+        <v>332.02706947917898</v>
       </c>
       <c r="BQ152">
-        <v>0</v>
+        <v>-21.964609325282577</v>
       </c>
       <c r="BR152">
-        <v>0</v>
+        <v>664379350.9221437</v>
       </c>
       <c r="BS152">
-        <v>0</v>
+        <v>70.651587824757968</v>
       </c>
       <c r="BT152">
-        <v>0</v>
+        <v>41.26062799837122</v>
       </c>
       <c r="BU152">
-        <v>0</v>
+        <v>51.294514280760559</v>
       </c>
       <c r="BV152">
-        <v>0</v>
+        <v>4575.0591347317477</v>
       </c>
       <c r="BW152">
-        <v>0</v>
+        <v>151.37118096183332</v>
       </c>
       <c r="BX152">
-        <v>0</v>
+        <v>72.623260268282522</v>
       </c>
       <c r="BY152">
-        <v>0</v>
+        <v>109.40617288163421</v>
       </c>
       <c r="BZ152">
-        <v>0</v>
+        <v>9753.9917576190765</v>
       </c>
       <c r="CA152">
-        <v>0</v>
+        <v>993.36701342344247</v>
       </c>
       <c r="CB152">
-        <v>0</v>
+        <v>47.322566319490534</v>
       </c>
       <c r="CC152">
-        <v>0</v>
+        <v>7.3896444519050419e-13</v>
       </c>
       <c r="CD152">
-        <v>0</v>
+        <v>11.03741126026048</v>
       </c>
       <c r="CE152">
-        <v>0</v>
+        <v>412.81722255082423</v>
       </c>
       <c r="CF152">
-        <v>0</v>
+        <v>2563.5249773404248</v>
       </c>
       <c r="CG152">
-        <v>0</v>
+        <v>938411428.8057307</v>
       </c>
       <c r="CH152">
-        <v>0</v>
+        <v>374.70478640877604</v>
       </c>
       <c r="CI152">
-        <v>0</v>
+        <v>14.605856523368848</v>
       </c>
       <c r="CJ152">
-        <v>0</v>
+        <v>1199099341.4624591</v>
       </c>
       <c r="CK152">
-        <v>0</v>
+        <v>344.18300632293091</v>
       </c>
       <c r="CL152">
-        <v>0</v>
+        <v>1935.0163757818759</v>
       </c>
       <c r="CM152">
-        <v>0</v>
+        <v>336113092.05887866</v>
       </c>
       <c r="CN152">
-        <v>0</v>
+        <v>256.56673504085938</v>
       </c>
       <c r="CO152">
-        <v>0</v>
+        <v>-0.68103523745846362</v>
       </c>
       <c r="CP152">
-        <v>0</v>
+        <v>275051127.90165174</v>
       </c>
       <c r="CQ152">
-        <v>0</v>
+        <v>21.20085746464078</v>
       </c>
       <c r="CR152">
-        <v>0</v>
+        <v>-9.1368528437415986</v>
       </c>
       <c r="CS152">
-        <v>0</v>
+        <v>2.0512250423924012</v>
       </c>
       <c r="CT152">
-        <v>0</v>
+        <v>212.58400192958109</v>
       </c>
       <c r="CU152">
-        <v>0</v>
+        <v>68.679379023666627</v>
       </c>
       <c r="CV152">
-        <v>0</v>
+        <v>18.054254343006466</v>
       </c>
       <c r="CW152">
-        <v>0</v>
+        <v>46.464526927949429</v>
       </c>
       <c r="CX152">
-        <v>0</v>
+        <v>4611.4216796934825</v>
       </c>
       <c r="CY152">
-        <v>0</v>
+        <v>1102.5541633417158</v>
       </c>
       <c r="CZ152">
-        <v>0</v>
+        <v>30.377237487542516</v>
       </c>
       <c r="DA152">
-        <v>0</v>
+        <v>4.5474735088646412e-13</v>
       </c>
       <c r="DB152">
-        <v>0</v>
+        <v>11.025541633417165</v>
       </c>
     </row>
     <row r="153">
@@ -94795,238 +97403,232 @@
         <v>1</v>
       </c>
       <c r="AC153">
-        <v>0</v>
+        <v>1.1799999475479126</v>
       </c>
       <c r="AD153">
-        <v>0</v>
-      </c>
-      <c r="AE153">
-        <v>0</v>
+        <v>1.5399999618530273</v>
       </c>
       <c r="AF153">
-        <v>0</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="AG153">
-        <v>0</v>
-      </c>
-      <c r="AH153">
-        <v>0</v>
+        <v>1.4600000381469727</v>
       </c>
       <c r="AI153">
-        <v>0</v>
+        <v>259.5527656159727</v>
       </c>
       <c r="AJ153">
-        <v>0</v>
+        <v>1003.1017784034636</v>
       </c>
       <c r="AK153">
-        <v>0</v>
+        <v>132404374.61774608</v>
       </c>
       <c r="AL153">
-        <v>0</v>
+        <v>228.04480937796109</v>
       </c>
       <c r="AM153">
-        <v>0</v>
+        <v>-3.055347365079859</v>
       </c>
       <c r="AN153">
-        <v>0</v>
+        <v>55531207.141331919</v>
       </c>
       <c r="AO153">
-        <v>0</v>
+        <v>217.59694231760542</v>
       </c>
       <c r="AP153">
-        <v>0</v>
+        <v>693.81977001302698</v>
       </c>
       <c r="AQ153">
-        <v>0</v>
+        <v>28727597.401264194</v>
       </c>
       <c r="AR153">
-        <v>0</v>
+        <v>168.66457700158068</v>
       </c>
       <c r="AS153">
-        <v>0</v>
+        <v>-4.9629565470463968</v>
       </c>
       <c r="AT153">
-        <v>0</v>
+        <v>22576585.651603866</v>
       </c>
       <c r="AU153">
-        <v>0</v>
+        <v>77.928804218372676</v>
       </c>
       <c r="AV153">
-        <v>0</v>
+        <v>41.968087620771165</v>
       </c>
       <c r="AW153">
-        <v>0</v>
+        <v>59.034498381025792</v>
       </c>
       <c r="AX153">
-        <v>0</v>
+        <v>9462.5067167834368</v>
       </c>
       <c r="AY153">
-        <v>0</v>
+        <v>119.03483043345385</v>
       </c>
       <c r="AZ153">
-        <v>0</v>
+        <v>71.923960535711259</v>
       </c>
       <c r="BA153">
-        <v>0</v>
+        <v>99.982329562146887</v>
       </c>
       <c r="BB153">
-        <v>0</v>
+        <v>16001.629303671403</v>
       </c>
       <c r="BC153">
-        <v>0</v>
+        <v>6303.2259144736045</v>
       </c>
       <c r="BD153">
-        <v>0</v>
+        <v>101.43436614560602</v>
       </c>
       <c r="BE153">
-        <v>0</v>
+        <v>3.4106051316484809e-13</v>
       </c>
       <c r="BF153">
-        <v>0</v>
+        <v>39.15047151846958</v>
       </c>
       <c r="BG153">
-        <v>0</v>
+        <v>291.38529301086709</v>
       </c>
       <c r="BH153">
-        <v>0</v>
+        <v>1397.0992553195886</v>
       </c>
       <c r="BI153">
-        <v>0</v>
+        <v>155392408.16230708</v>
       </c>
       <c r="BJ153">
-        <v>0</v>
+        <v>245.97832039868646</v>
       </c>
       <c r="BK153">
-        <v>0</v>
+        <v>-7.9115580469531928</v>
       </c>
       <c r="BL153">
-        <v>0</v>
+        <v>115331868.8620919</v>
       </c>
       <c r="BM153">
-        <v>0</v>
+        <v>239.35813587045769</v>
       </c>
       <c r="BN153">
-        <v>0</v>
+        <v>1036.3604026794194</v>
       </c>
       <c r="BO153">
-        <v>0</v>
+        <v>51829699.2853994</v>
       </c>
       <c r="BP153">
-        <v>0</v>
+        <v>174.89803011230043</v>
       </c>
       <c r="BQ153">
-        <v>0</v>
+        <v>-12.591591783149488</v>
       </c>
       <c r="BR153">
-        <v>0</v>
+        <v>49189748.929482438</v>
       </c>
       <c r="BS153">
-        <v>0</v>
+        <v>51.506208104802639</v>
       </c>
       <c r="BT153">
-        <v>0</v>
+        <v>-8.5954572846370496</v>
       </c>
       <c r="BU153">
-        <v>0</v>
+        <v>14.361569461450429</v>
       </c>
       <c r="BV153">
-        <v>0</v>
+        <v>2118.3594145145889</v>
       </c>
       <c r="BW153">
-        <v>0</v>
+        <v>76.798775345772526</v>
       </c>
       <c r="BX153">
-        <v>0</v>
+        <v>19.406979200691463</v>
       </c>
       <c r="BY153">
-        <v>0</v>
+        <v>49.192969799542531</v>
       </c>
       <c r="BZ153">
-        <v>0</v>
+        <v>7192.6256732276815</v>
       </c>
       <c r="CA153">
-        <v>0</v>
+        <v>1110.2194416671025</v>
       </c>
       <c r="CB153">
-        <v>0</v>
+        <v>27.115399287523701</v>
       </c>
       <c r="CC153">
-        <v>0</v>
+        <v>6.2527760746888816e-13</v>
       </c>
       <c r="CD153">
-        <v>0</v>
+        <v>7.5525132086197511</v>
       </c>
       <c r="CE153">
-        <v>0</v>
+        <v>354.82802736344922</v>
       </c>
       <c r="CF153">
-        <v>0</v>
+        <v>2910.3956347271906</v>
       </c>
       <c r="CG153">
-        <v>0</v>
+        <v>2387944059.9753132</v>
       </c>
       <c r="CH153">
-        <v>0</v>
+        <v>302.37744336601486</v>
       </c>
       <c r="CI153">
-        <v>0</v>
+        <v>8.279024788551121</v>
       </c>
       <c r="CJ153">
-        <v>0</v>
+        <v>1613731244.7314358</v>
       </c>
       <c r="CK153">
-        <v>0</v>
+        <v>295.50879471043129</v>
       </c>
       <c r="CL153">
-        <v>0</v>
+        <v>1587.5970520948279</v>
       </c>
       <c r="CM153">
-        <v>0</v>
+        <v>4174410918.0853314</v>
       </c>
       <c r="CN153">
-        <v>0</v>
+        <v>212.74145131957337</v>
       </c>
       <c r="CO153">
-        <v>0</v>
+        <v>-36.542481110062845</v>
       </c>
       <c r="CP153">
-        <v>0</v>
+        <v>572477173.68261158</v>
       </c>
       <c r="CQ153">
-        <v>0</v>
+        <v>80.581047795272255</v>
       </c>
       <c r="CR153">
-        <v>0</v>
+        <v>40.89795359736501</v>
       </c>
       <c r="CS153">
-        <v>0</v>
+        <v>52.543752123079571</v>
       </c>
       <c r="CT153">
-        <v>0</v>
+        <v>6211.1889305498744</v>
       </c>
       <c r="CU153">
-        <v>0</v>
+        <v>163.17890471307581</v>
       </c>
       <c r="CV153">
-        <v>0</v>
+        <v>96.027280598373409</v>
       </c>
       <c r="CW153">
-        <v>0</v>
+        <v>121.81055988472411</v>
       </c>
       <c r="CX153">
-        <v>0</v>
+        <v>14398.343865840588</v>
       </c>
       <c r="CY153">
-        <v>0</v>
+        <v>1679.7142355145104</v>
       </c>
       <c r="CZ153">
-        <v>0</v>
+        <v>68.785334375771924</v>
       </c>
       <c r="DA153">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="DB153">
-        <v>0</v>
+        <v>14.115245676592526</v>
       </c>
     </row>
     <row r="154">
@@ -95115,238 +97717,238 @@
         <v>2</v>
       </c>
       <c r="AC154">
-        <v>0</v>
+        <v>0.86000001430511475</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>0.20999999344348907</v>
       </c>
       <c r="AE154">
-        <v>0</v>
+        <v>0.62000000476837158</v>
       </c>
       <c r="AF154">
-        <v>0</v>
+        <v>1.4700000286102295</v>
       </c>
       <c r="AG154">
-        <v>0</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="AH154">
-        <v>0</v>
+        <v>1.1599999666213989</v>
       </c>
       <c r="AI154">
-        <v>0</v>
+        <v>275.42794808742894</v>
       </c>
       <c r="AJ154">
-        <v>0</v>
+        <v>1438.0691305005996</v>
       </c>
       <c r="AK154">
-        <v>0</v>
+        <v>174138039.43694669</v>
       </c>
       <c r="AL154">
-        <v>0</v>
+        <v>243.70894017568955</v>
       </c>
       <c r="AM154">
-        <v>0</v>
+        <v>2.9290235118896386</v>
       </c>
       <c r="AN154">
-        <v>0</v>
+        <v>164607416.48952365</v>
       </c>
       <c r="AO154">
-        <v>0</v>
+        <v>240.49090987953795</v>
       </c>
       <c r="AP154">
-        <v>0</v>
+        <v>1133.3676648694286</v>
       </c>
       <c r="AQ154">
-        <v>0</v>
+        <v>76202981.773868918</v>
       </c>
       <c r="AR154">
-        <v>0</v>
+        <v>171.00596091083878</v>
       </c>
       <c r="AS154">
-        <v>0</v>
+        <v>5.6164068082623118</v>
       </c>
       <c r="AT154">
-        <v>0</v>
+        <v>69084426.754562527</v>
       </c>
       <c r="AU154">
-        <v>0</v>
+        <v>42.285346475175565</v>
       </c>
       <c r="AV154">
-        <v>0</v>
+        <v>-8.5315845591167765</v>
       </c>
       <c r="AW154">
-        <v>0</v>
+        <v>6.3203575869765105</v>
       </c>
       <c r="AX154">
-        <v>0</v>
+        <v>942.93241423657855</v>
       </c>
       <c r="AY154">
-        <v>0</v>
+        <v>84.170530901703117</v>
       </c>
       <c r="AZ154">
-        <v>0</v>
+        <v>16.366014511414171</v>
       </c>
       <c r="BA154">
-        <v>0</v>
+        <v>47.915773234669878</v>
       </c>
       <c r="BB154">
-        <v>0</v>
+        <v>7057.3741594968351</v>
       </c>
       <c r="BC154">
-        <v>0</v>
+        <v>515.16637250987696</v>
       </c>
       <c r="BD154">
-        <v>0</v>
+        <v>10.866368615774945</v>
       </c>
       <c r="BE154">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="BF154">
-        <v>0</v>
+        <v>3.480853868309981</v>
       </c>
       <c r="BG154">
-        <v>0</v>
+        <v>469.23081936416537</v>
       </c>
       <c r="BH154">
-        <v>0</v>
+        <v>4366.7312996649571</v>
       </c>
       <c r="BI154">
-        <v>0</v>
+        <v>5128073428.3717709</v>
       </c>
       <c r="BJ154">
-        <v>0</v>
+        <v>436.3319757266475</v>
       </c>
       <c r="BK154">
-        <v>0</v>
+        <v>7.5594024497803138</v>
       </c>
       <c r="BL154">
-        <v>0</v>
+        <v>6370402759.2356482</v>
       </c>
       <c r="BM154">
-        <v>0</v>
+        <v>389.82729939711612</v>
       </c>
       <c r="BN154">
-        <v>0</v>
+        <v>2651.1134228526703</v>
       </c>
       <c r="BO154">
-        <v>0</v>
+        <v>1539783985.7699347</v>
       </c>
       <c r="BP154">
-        <v>0</v>
+        <v>320.4618191702732</v>
       </c>
       <c r="BQ154">
-        <v>0</v>
+        <v>46.743124896215214</v>
       </c>
       <c r="BR154">
-        <v>0</v>
+        <v>850052096.98229063</v>
       </c>
       <c r="BS154">
-        <v>0</v>
+        <v>56.326889123486303</v>
       </c>
       <c r="BT154">
-        <v>0</v>
+        <v>39.78221953933695</v>
       </c>
       <c r="BU154">
-        <v>0</v>
+        <v>46.032076417257841</v>
       </c>
       <c r="BV154">
-        <v>0</v>
+        <v>3871.7155996992615</v>
       </c>
       <c r="BW154">
-        <v>0</v>
+        <v>112.46354376457629</v>
       </c>
       <c r="BX154">
-        <v>0</v>
+        <v>82.253740303744053</v>
       </c>
       <c r="BY154">
-        <v>0</v>
+        <v>96.256844644916498</v>
       </c>
       <c r="BZ154">
-        <v>0</v>
+        <v>8090.9576909994084</v>
       </c>
       <c r="CA154">
-        <v>0</v>
+        <v>372.60491093713648</v>
       </c>
       <c r="CB154">
-        <v>0</v>
+        <v>20.729683168900237</v>
       </c>
       <c r="CC154">
-        <v>0</v>
+        <v>2.7000623958883807e-13</v>
       </c>
       <c r="CD154">
-        <v>0</v>
+        <v>4.3835871874957268</v>
       </c>
       <c r="CE154">
-        <v>0</v>
+        <v>340.41868840546869</v>
       </c>
       <c r="CF154">
-        <v>0</v>
+        <v>2130.3848829839953</v>
       </c>
       <c r="CG154">
-        <v>0</v>
+        <v>677039500.3568424</v>
       </c>
       <c r="CH154">
-        <v>0</v>
+        <v>300.25812655632427</v>
       </c>
       <c r="CI154">
-        <v>0</v>
+        <v>11.294858035180983</v>
       </c>
       <c r="CJ154">
-        <v>0</v>
+        <v>518834916.50178879</v>
       </c>
       <c r="CK154">
-        <v>0</v>
+        <v>295.64192117316793</v>
       </c>
       <c r="CL154">
-        <v>0</v>
+        <v>1522.4061069565262</v>
       </c>
       <c r="CM154">
-        <v>0</v>
+        <v>132299817.53034838</v>
       </c>
       <c r="CN154">
-        <v>0</v>
+        <v>220.5658178742039</v>
       </c>
       <c r="CO154">
-        <v>0</v>
+        <v>-15.379352026286274</v>
       </c>
       <c r="CP154">
-        <v>0</v>
+        <v>126154220.13597284</v>
       </c>
       <c r="CQ154">
-        <v>0</v>
+        <v>31.772963052109418</v>
       </c>
       <c r="CR154">
-        <v>0</v>
+        <v>-8.8367948610462896</v>
       </c>
       <c r="CS154">
-        <v>0</v>
+        <v>4.1151852153456234</v>
       </c>
       <c r="CT154">
-        <v>0</v>
+        <v>489.48978673516416</v>
       </c>
       <c r="CU154">
-        <v>0</v>
+        <v>73.46916210592569</v>
       </c>
       <c r="CV154">
-        <v>0</v>
+        <v>19.14444728477708</v>
       </c>
       <c r="CW154">
-        <v>0</v>
+        <v>46.537125600685755</v>
       </c>
       <c r="CX154">
-        <v>0</v>
+        <v>5407.813268106207</v>
       </c>
       <c r="CY154">
-        <v>0</v>
+        <v>1234.0317425633896</v>
       </c>
       <c r="CZ154">
-        <v>0</v>
+        <v>32.711846098208014</v>
       </c>
       <c r="DA154">
         <v>0</v>
       </c>
       <c r="DB154">
-        <v>0</v>
+        <v>10.547279850969144</v>
       </c>
     </row>
     <row r="155">
@@ -95435,238 +98037,238 @@
         <v>1</v>
       </c>
       <c r="AC155">
-        <v>0</v>
+        <v>1.3400000333786011</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>2.1700000762939453</v>
       </c>
       <c r="AE155">
-        <v>0</v>
+        <v>1.1799999475479126</v>
       </c>
       <c r="AF155">
-        <v>0</v>
+        <v>1.0199999809265137</v>
       </c>
       <c r="AG155">
-        <v>0</v>
+        <v>1.5499999523162842</v>
       </c>
       <c r="AH155">
-        <v>0</v>
+        <v>0.70999997854232788</v>
       </c>
       <c r="AI155">
-        <v>0</v>
+        <v>419.08160436419354</v>
       </c>
       <c r="AJ155">
-        <v>0</v>
+        <v>3910.8811108807167</v>
       </c>
       <c r="AK155">
-        <v>0</v>
+        <v>2612852350.8995996</v>
       </c>
       <c r="AL155">
-        <v>0</v>
+        <v>356.01102305397023</v>
       </c>
       <c r="AM155">
-        <v>0</v>
+        <v>-4.8748736246204132</v>
       </c>
       <c r="AN155">
-        <v>0</v>
+        <v>4939856414.9625406</v>
       </c>
       <c r="AO155">
-        <v>0</v>
+        <v>256.21796556370799</v>
       </c>
       <c r="AP155">
-        <v>0</v>
+        <v>2009.8793892274612</v>
       </c>
       <c r="AQ155">
-        <v>0</v>
+        <v>314265926.95308858</v>
       </c>
       <c r="AR155">
-        <v>0</v>
+        <v>215.4393033593787</v>
       </c>
       <c r="AS155">
-        <v>0</v>
+        <v>-28.752071343053412</v>
       </c>
       <c r="AT155">
-        <v>0</v>
+        <v>571237505.85834336</v>
       </c>
       <c r="AU155">
-        <v>0</v>
+        <v>93.170334906847458</v>
       </c>
       <c r="AV155">
-        <v>0</v>
+        <v>34.82944028138408</v>
       </c>
       <c r="AW155">
-        <v>0</v>
+        <v>54.350505999475359</v>
       </c>
       <c r="AX155">
-        <v>0</v>
+        <v>5559.3843814013908</v>
       </c>
       <c r="AY155">
-        <v>0</v>
+        <v>120.23238784168696</v>
       </c>
       <c r="AZ155">
-        <v>0</v>
+        <v>72.258520788418238</v>
       </c>
       <c r="BA155">
-        <v>0</v>
+        <v>95.071995770567867</v>
       </c>
       <c r="BB155">
-        <v>0</v>
+        <v>9706.7135942618461</v>
       </c>
       <c r="BC155">
-        <v>0</v>
+        <v>2317.4941544347766</v>
       </c>
       <c r="BD155">
-        <v>0</v>
+        <v>101.32527274362673</v>
       </c>
       <c r="BE155">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="BF155">
-        <v>0</v>
+        <v>22.499943246939583</v>
       </c>
       <c r="BG155">
-        <v>0</v>
+        <v>273.79955479511875</v>
       </c>
       <c r="BH155">
-        <v>0</v>
+        <v>1426.6219015320405</v>
       </c>
       <c r="BI155">
-        <v>0</v>
+        <v>213890606.78530788</v>
       </c>
       <c r="BJ155">
-        <v>0</v>
+        <v>239.33932285066379</v>
       </c>
       <c r="BK155">
-        <v>0</v>
+        <v>1.4440578646677948</v>
       </c>
       <c r="BL155">
-        <v>0</v>
+        <v>195222680.91643935</v>
       </c>
       <c r="BM155">
-        <v>0</v>
+        <v>172.91872268651329</v>
       </c>
       <c r="BN155">
-        <v>0</v>
+        <v>787.69301798844549</v>
       </c>
       <c r="BO155">
-        <v>0</v>
+        <v>42033899.770916231</v>
       </c>
       <c r="BP155">
-        <v>0</v>
+        <v>143.85233494438509</v>
       </c>
       <c r="BQ155">
-        <v>0</v>
+        <v>5.0494335605197085</v>
       </c>
       <c r="BR155">
-        <v>0</v>
+        <v>46439656.166740216</v>
       </c>
       <c r="BS155">
-        <v>0</v>
+        <v>39.38068628326878</v>
       </c>
       <c r="BT155">
-        <v>0</v>
+        <v>-11.629209743514172</v>
       </c>
       <c r="BU155">
-        <v>0</v>
+        <v>6.2496170281002756</v>
       </c>
       <c r="BV155">
-        <v>0</v>
+        <v>985.21330559966998</v>
       </c>
       <c r="BW155">
-        <v>0</v>
+        <v>65.868369656281942</v>
       </c>
       <c r="BX155">
-        <v>0</v>
+        <v>18.546441768761049</v>
       </c>
       <c r="BY155">
-        <v>0</v>
+        <v>42.403437942382183</v>
       </c>
       <c r="BZ155">
-        <v>0</v>
+        <v>6586.5711163454389</v>
       </c>
       <c r="CA155">
-        <v>0</v>
+        <v>5137.1573651027902</v>
       </c>
       <c r="CB155">
-        <v>0</v>
+        <v>121.40693125479095</v>
       </c>
       <c r="CC155">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="CD155">
-        <v>0</v>
+        <v>32.930495930146066</v>
       </c>
       <c r="CE155">
-        <v>0</v>
+        <v>575.57573922589052</v>
       </c>
       <c r="CF155">
-        <v>0</v>
+        <v>5727.9545920823839</v>
       </c>
       <c r="CG155">
-        <v>0</v>
+        <v>4985823090.6959734</v>
       </c>
       <c r="CH155">
-        <v>0</v>
+        <v>494.20214940755039</v>
       </c>
       <c r="CI155">
-        <v>0</v>
+        <v>-45.878947167139444</v>
       </c>
       <c r="CJ155">
-        <v>0</v>
+        <v>7654963147.3490534</v>
       </c>
       <c r="CK155">
-        <v>0</v>
+        <v>332.90373142638873</v>
       </c>
       <c r="CL155">
-        <v>0</v>
+        <v>2892.3464783750637</v>
       </c>
       <c r="CM155">
-        <v>0</v>
+        <v>879348441.29360306</v>
       </c>
       <c r="CN155">
-        <v>0</v>
+        <v>317.95795646706415</v>
       </c>
       <c r="CO155">
-        <v>0</v>
+        <v>41.719770988552227</v>
       </c>
       <c r="CP155">
-        <v>0</v>
+        <v>1348756627.433573</v>
       </c>
       <c r="CQ155">
-        <v>0</v>
+        <v>94.75864220099146</v>
       </c>
       <c r="CR155">
-        <v>0</v>
+        <v>40.321932383754948</v>
       </c>
       <c r="CS155">
-        <v>0</v>
+        <v>59.60928386893503</v>
       </c>
       <c r="CT155">
-        <v>0</v>
+        <v>4248.0217354207498</v>
       </c>
       <c r="CU155">
-        <v>0</v>
+        <v>113.25361727197007</v>
       </c>
       <c r="CV155">
-        <v>0</v>
+        <v>75.428511309270888</v>
       </c>
       <c r="CW155">
-        <v>0</v>
+        <v>90.189154628739843</v>
       </c>
       <c r="CX155">
-        <v>0</v>
+        <v>6404.8878649051758</v>
       </c>
       <c r="CY155">
-        <v>0</v>
+        <v>671.69661780420597</v>
       </c>
       <c r="CZ155">
-        <v>0</v>
+        <v>35.936371101385561</v>
       </c>
       <c r="DA155">
-        <v>0</v>
+        <v>1.7053025658242404e-13</v>
       </c>
       <c r="DB155">
-        <v>0</v>
+        <v>9.32911969172509</v>
       </c>
     </row>
     <row r="156">
@@ -95755,238 +98357,238 @@
         <v>2</v>
       </c>
       <c r="AC156">
-        <v>0</v>
+        <v>1.2899999618530273</v>
       </c>
       <c r="AD156">
-        <v>0</v>
+        <v>0.55000001192092896</v>
       </c>
       <c r="AE156">
-        <v>0</v>
+        <v>0.81999999284744263</v>
       </c>
       <c r="AF156">
-        <v>0</v>
+        <v>2.440000057220459</v>
       </c>
       <c r="AG156">
-        <v>0</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="AH156">
-        <v>0</v>
+        <v>1.0800000429153442</v>
       </c>
       <c r="AI156">
-        <v>0</v>
+        <v>252.04267922758564</v>
       </c>
       <c r="AJ156">
-        <v>0</v>
+        <v>1797.4408115815534</v>
       </c>
       <c r="AK156">
-        <v>0</v>
+        <v>653863764.62391353</v>
       </c>
       <c r="AL156">
-        <v>0</v>
+        <v>142.67076812382959</v>
       </c>
       <c r="AM156">
-        <v>0</v>
+        <v>-3.7766705847937057</v>
       </c>
       <c r="AN156">
-        <v>0</v>
+        <v>722082992.50656962</v>
       </c>
       <c r="AO156">
-        <v>0</v>
+        <v>205.21735928403479</v>
       </c>
       <c r="AP156">
-        <v>0</v>
+        <v>1221.4451118396225</v>
       </c>
       <c r="AQ156">
-        <v>0</v>
+        <v>163739156.59049296</v>
       </c>
       <c r="AR156">
-        <v>0</v>
+        <v>98.886521356116546</v>
       </c>
       <c r="AS156">
-        <v>0</v>
+        <v>-13.812021452525599</v>
       </c>
       <c r="AT156">
-        <v>0</v>
+        <v>166858249.63349888</v>
       </c>
       <c r="AU156">
-        <v>0</v>
+        <v>64.915122632658068</v>
       </c>
       <c r="AV156">
-        <v>0</v>
+        <v>-8.5912732022868781</v>
       </c>
       <c r="AW156">
-        <v>0</v>
+        <v>13.476374174232706</v>
       </c>
       <c r="AX156">
-        <v>0</v>
+        <v>3309.1865172701291</v>
       </c>
       <c r="AY156">
-        <v>0</v>
+        <v>89.297479247130155</v>
       </c>
       <c r="AZ156">
-        <v>0</v>
+        <v>18.329463261743793</v>
       </c>
       <c r="BA156">
-        <v>0</v>
+        <v>57.057039074913455</v>
       </c>
       <c r="BB156">
-        <v>0</v>
+        <v>13938.996211681684</v>
       </c>
       <c r="BC156">
-        <v>0</v>
+        <v>3162.261804665844</v>
       </c>
       <c r="BD156">
-        <v>0</v>
+        <v>53.371610235635217</v>
       </c>
       <c r="BE156">
         <v>0</v>
       </c>
       <c r="BF156">
-        <v>0</v>
+        <v>12.907191039452423</v>
       </c>
       <c r="BG156">
-        <v>0</v>
+        <v>390.30293910243648</v>
       </c>
       <c r="BH156">
-        <v>0</v>
+        <v>3123.3997862263</v>
       </c>
       <c r="BI156">
-        <v>0</v>
+        <v>1978834053.6055412</v>
       </c>
       <c r="BJ156">
-        <v>0</v>
+        <v>343.74026835300077</v>
       </c>
       <c r="BK156">
-        <v>0</v>
+        <v>-0.79692902308084912</v>
       </c>
       <c r="BL156">
-        <v>0</v>
+        <v>1738488787.3234227</v>
       </c>
       <c r="BM156">
-        <v>0</v>
+        <v>262.9152136818019</v>
       </c>
       <c r="BN156">
-        <v>0</v>
+        <v>1775.8730764642996</v>
       </c>
       <c r="BO156">
-        <v>0</v>
+        <v>369959240.50951803</v>
       </c>
       <c r="BP156">
-        <v>0</v>
+        <v>233.50390921470483</v>
       </c>
       <c r="BQ156">
-        <v>0</v>
+        <v>5.5656862682643498</v>
       </c>
       <c r="BR156">
-        <v>0</v>
+        <v>359901782.85098374</v>
       </c>
       <c r="BS156">
-        <v>0</v>
+        <v>80.873368877752625</v>
       </c>
       <c r="BT156">
-        <v>0</v>
+        <v>42.317258789118021</v>
       </c>
       <c r="BU156">
-        <v>0</v>
+        <v>54.636272652581454</v>
       </c>
       <c r="BV156">
-        <v>0</v>
+        <v>5692.7128272395521</v>
       </c>
       <c r="BW156">
-        <v>0</v>
+        <v>113.95256625466638</v>
       </c>
       <c r="BX156">
-        <v>0</v>
+        <v>72.267568189184232</v>
       </c>
       <c r="BY156">
-        <v>0</v>
+        <v>92.242848745046686</v>
       </c>
       <c r="BZ156">
-        <v>0</v>
+        <v>9601.1570888983588</v>
       </c>
       <c r="CA156">
-        <v>0</v>
+        <v>1752.2248680162083</v>
       </c>
       <c r="CB156">
-        <v>0</v>
+        <v>68.104129940487951</v>
       </c>
       <c r="CC156">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="CD156">
-        <v>0</v>
+        <v>16.68785588586864</v>
       </c>
       <c r="CE156">
-        <v>0</v>
+        <v>373.76728421020795</v>
       </c>
       <c r="CF156">
-        <v>0</v>
+        <v>2319.8999523805587</v>
       </c>
       <c r="CG156">
-        <v>0</v>
+        <v>465497646.39660949</v>
       </c>
       <c r="CH156">
-        <v>0</v>
+        <v>328.81541869033492</v>
       </c>
       <c r="CI156">
-        <v>0</v>
+        <v>3.7212180724998589</v>
       </c>
       <c r="CJ156">
-        <v>0</v>
+        <v>538931855.09053183</v>
       </c>
       <c r="CK156">
-        <v>0</v>
+        <v>203.22648876332153</v>
       </c>
       <c r="CL156">
-        <v>0</v>
+        <v>1183.4943690959212</v>
       </c>
       <c r="CM156">
-        <v>0</v>
+        <v>97703056.390386507</v>
       </c>
       <c r="CN156">
-        <v>0</v>
+        <v>189.25801482277532</v>
       </c>
       <c r="CO156">
-        <v>0</v>
+        <v>-12.881557036142913</v>
       </c>
       <c r="CP156">
-        <v>0</v>
+        <v>118690812.6234861</v>
       </c>
       <c r="CQ156">
-        <v>0</v>
+        <v>40.792854036638452</v>
       </c>
       <c r="CR156">
-        <v>0</v>
+        <v>-12.105042255371174</v>
       </c>
       <c r="CS156">
-        <v>0</v>
+        <v>10.644203973109299</v>
       </c>
       <c r="CT156">
-        <v>0</v>
+        <v>1170.0266818827542</v>
       </c>
       <c r="CU156">
-        <v>0</v>
+        <v>49.43416479529656</v>
       </c>
       <c r="CV156">
-        <v>0</v>
+        <v>16.50464859292299</v>
       </c>
       <c r="CW156">
-        <v>0</v>
+        <v>32.360062779081908</v>
       </c>
       <c r="CX156">
-        <v>0</v>
+        <v>3503.0906805922373</v>
       </c>
       <c r="CY156">
-        <v>0</v>
+        <v>1218.2981996211934</v>
       </c>
       <c r="CZ156">
-        <v>0</v>
+        <v>40.999766942136091</v>
       </c>
       <c r="DA156">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="DB156">
-        <v>0</v>
+        <v>11.17704770294673</v>
       </c>
     </row>
     <row r="157">
@@ -96075,238 +98677,238 @@
         <v>1</v>
       </c>
       <c r="AC157">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD157">
-        <v>0</v>
+        <v>1.6599999666213989</v>
       </c>
       <c r="AE157">
-        <v>0</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="AF157">
-        <v>0</v>
+        <v>1.3500000238418579</v>
       </c>
       <c r="AG157">
-        <v>0</v>
+        <v>1.309999942779541</v>
       </c>
       <c r="AH157">
-        <v>0</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="AI157">
-        <v>0</v>
+        <v>328.4911192237891</v>
       </c>
       <c r="AJ157">
-        <v>0</v>
+        <v>1810.6987537064542</v>
       </c>
       <c r="AK157">
-        <v>0</v>
+        <v>448521033.44944084</v>
       </c>
       <c r="AL157">
-        <v>0</v>
+        <v>262.24968687921137</v>
       </c>
       <c r="AM157">
-        <v>0</v>
+        <v>3.8054830643023063</v>
       </c>
       <c r="AN157">
-        <v>0</v>
+        <v>308603734.96461344</v>
       </c>
       <c r="AO157">
-        <v>0</v>
+        <v>257.64597108345083</v>
       </c>
       <c r="AP157">
-        <v>0</v>
+        <v>1198.8494114256696</v>
       </c>
       <c r="AQ157">
-        <v>0</v>
+        <v>106192540.37645152</v>
       </c>
       <c r="AR157">
-        <v>0</v>
+        <v>189.93033417131397</v>
       </c>
       <c r="AS157">
-        <v>0</v>
+        <v>-12.981048854264092</v>
       </c>
       <c r="AT157">
-        <v>0</v>
+        <v>143861028.86482218</v>
       </c>
       <c r="AU157">
-        <v>0</v>
+        <v>127.21331848632136</v>
       </c>
       <c r="AV157">
-        <v>0</v>
+        <v>40.877614245511083</v>
       </c>
       <c r="AW157">
-        <v>0</v>
+        <v>74.119165972967309</v>
       </c>
       <c r="AX157">
-        <v>0</v>
+        <v>10037.469812580912</v>
       </c>
       <c r="AY157">
-        <v>0</v>
+        <v>145.87717139027765</v>
       </c>
       <c r="AZ157">
-        <v>0</v>
+        <v>75.398098525435373</v>
       </c>
       <c r="BA157">
-        <v>0</v>
+        <v>113.21449409336486</v>
       </c>
       <c r="BB157">
-        <v>0</v>
+        <v>15305.015711931812</v>
       </c>
       <c r="BC157">
-        <v>0</v>
+        <v>1629.6501625285653</v>
       </c>
       <c r="BD157">
-        <v>0</v>
+        <v>40.500761825897939</v>
       </c>
       <c r="BE157">
-        <v>0</v>
+        <v>3.5527136788005009e-13</v>
       </c>
       <c r="BF157">
-        <v>0</v>
+        <v>11.982721783298276</v>
       </c>
       <c r="BG157">
-        <v>0</v>
+        <v>306.14297643313319</v>
       </c>
       <c r="BH157">
-        <v>0</v>
+        <v>1718.2472079229929</v>
       </c>
       <c r="BI157">
-        <v>0</v>
+        <v>277269140.99081141</v>
       </c>
       <c r="BJ157">
-        <v>0</v>
+        <v>276.15566838140614</v>
       </c>
       <c r="BK157">
-        <v>0</v>
+        <v>-3.3446490998433229</v>
       </c>
       <c r="BL157">
-        <v>0</v>
+        <v>158417481.26362795</v>
       </c>
       <c r="BM157">
-        <v>0</v>
+        <v>179.62873628652858</v>
       </c>
       <c r="BN157">
-        <v>0</v>
+        <v>975.870932315917</v>
       </c>
       <c r="BO157">
-        <v>0</v>
+        <v>57570882.071274497</v>
       </c>
       <c r="BP157">
-        <v>0</v>
+        <v>160.48155619190916</v>
       </c>
       <c r="BQ157">
-        <v>0</v>
+        <v>4.3566736434812068</v>
       </c>
       <c r="BR157">
-        <v>0</v>
+        <v>91207043.197406814</v>
       </c>
       <c r="BS157">
-        <v>0</v>
+        <v>22.342050140747091</v>
       </c>
       <c r="BT157">
-        <v>0</v>
+        <v>-11.7192690015096</v>
       </c>
       <c r="BU157">
-        <v>0</v>
+        <v>4.3393202339804731</v>
       </c>
       <c r="BV157">
-        <v>0</v>
+        <v>581.80871345422338</v>
       </c>
       <c r="BW157">
-        <v>0</v>
+        <v>55.106317345054322</v>
       </c>
       <c r="BX157">
-        <v>0</v>
+        <v>16.172986611179123</v>
       </c>
       <c r="BY157">
-        <v>0</v>
+        <v>36.834361281330295</v>
       </c>
       <c r="BZ157">
-        <v>0</v>
+        <v>4834.3671915343584</v>
       </c>
       <c r="CA157">
-        <v>0</v>
+        <v>1499.9316740044248</v>
       </c>
       <c r="CB157">
-        <v>0</v>
+        <v>53.503380131142364</v>
       </c>
       <c r="CC157">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="CD157">
-        <v>0</v>
+        <v>11.36311874245777</v>
       </c>
       <c r="CE157">
-        <v>0</v>
+        <v>426.98845788666108</v>
       </c>
       <c r="CF157">
-        <v>0</v>
+        <v>4199.914025537043</v>
       </c>
       <c r="CG157">
-        <v>0</v>
+        <v>5089559614.437377</v>
       </c>
       <c r="CH157">
-        <v>0</v>
+        <v>368.03475485848389</v>
       </c>
       <c r="CI157">
-        <v>0</v>
+        <v>-11.163282986750019</v>
       </c>
       <c r="CJ157">
-        <v>0</v>
+        <v>4884654895.0841455</v>
       </c>
       <c r="CK157">
-        <v>0</v>
+        <v>276.2050914012558</v>
       </c>
       <c r="CL157">
-        <v>0</v>
+        <v>1755.9692440889155</v>
       </c>
       <c r="CM157">
-        <v>0</v>
+        <v>1648155710.0524237</v>
       </c>
       <c r="CN157">
-        <v>0</v>
+        <v>230.42959503979557</v>
       </c>
       <c r="CO157">
-        <v>0</v>
+        <v>59.417555138482065</v>
       </c>
       <c r="CP157">
-        <v>0</v>
+        <v>448380842.48150724</v>
       </c>
       <c r="CQ157">
-        <v>0</v>
+        <v>68.632682460961433</v>
       </c>
       <c r="CR157">
-        <v>0</v>
+        <v>34.847883982371634</v>
       </c>
       <c r="CS157">
-        <v>0</v>
+        <v>49.164159736260487</v>
       </c>
       <c r="CT157">
-        <v>0</v>
+        <v>4878.0038193552627</v>
       </c>
       <c r="CU157">
-        <v>0</v>
+        <v>132.77821954517347</v>
       </c>
       <c r="CV157">
-        <v>0</v>
+        <v>89.587957319554206</v>
       </c>
       <c r="CW157">
-        <v>0</v>
+        <v>107.66311522934269</v>
       </c>
       <c r="CX157">
-        <v>0</v>
+        <v>10672.621444381786</v>
       </c>
       <c r="CY157">
-        <v>0</v>
+        <v>2968.3113106639762</v>
       </c>
       <c r="CZ157">
-        <v>0</v>
+        <v>130.73567118943572</v>
       </c>
       <c r="DA157">
-        <v>0</v>
+        <v>6.2527760746888816e-13</v>
       </c>
       <c r="DB157">
-        <v>0</v>
+        <v>29.683113106639759</v>
       </c>
     </row>
     <row r="158">
@@ -96395,238 +98997,238 @@
         <v>2</v>
       </c>
       <c r="AC158">
-        <v>0</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="AD158">
-        <v>0</v>
+        <v>2.2899999618530273</v>
       </c>
       <c r="AE158">
-        <v>0</v>
+        <v>1.1599999666213989</v>
       </c>
       <c r="AF158">
-        <v>0</v>
+        <v>1.3300000429153442</v>
       </c>
       <c r="AG158">
-        <v>0</v>
+        <v>1.9600000381469727</v>
       </c>
       <c r="AH158">
-        <v>0</v>
+        <v>1.3899999856948853</v>
       </c>
       <c r="AI158">
-        <v>0</v>
+        <v>317.33790865137928</v>
       </c>
       <c r="AJ158">
-        <v>0</v>
+        <v>1521.4354935243068</v>
       </c>
       <c r="AK158">
-        <v>0</v>
+        <v>235151875.34875804</v>
       </c>
       <c r="AL158">
-        <v>0</v>
+        <v>273.67697660142557</v>
       </c>
       <c r="AM158">
-        <v>0</v>
+        <v>-4.3358434091577784</v>
       </c>
       <c r="AN158">
-        <v>0</v>
+        <v>147703227.65093076</v>
       </c>
       <c r="AO158">
-        <v>0</v>
+        <v>268.90600239503357</v>
       </c>
       <c r="AP158">
-        <v>0</v>
+        <v>1198.7497001248662</v>
       </c>
       <c r="AQ158">
-        <v>0</v>
+        <v>76696791.505266353</v>
       </c>
       <c r="AR158">
-        <v>0</v>
+        <v>196.30992133068074</v>
       </c>
       <c r="AS158">
-        <v>0</v>
+        <v>-28.177467970170241</v>
       </c>
       <c r="AT158">
-        <v>0</v>
+        <v>30712017.518306762</v>
       </c>
       <c r="AU158">
-        <v>0</v>
+        <v>62.493277149348813</v>
       </c>
       <c r="AV158">
-        <v>0</v>
+        <v>-8.4252992163085612</v>
       </c>
       <c r="AW158">
-        <v>0</v>
+        <v>15.482629199752681</v>
       </c>
       <c r="AX158">
-        <v>0</v>
+        <v>2082.3343926535267</v>
       </c>
       <c r="AY158">
-        <v>0</v>
+        <v>90.106314470705456</v>
       </c>
       <c r="AZ158">
-        <v>0</v>
+        <v>16.393133217835498</v>
       </c>
       <c r="BA158">
-        <v>0</v>
+        <v>53.304856612975193</v>
       </c>
       <c r="BB158">
-        <v>0</v>
+        <v>7107.59004430601</v>
       </c>
       <c r="BC158">
-        <v>0</v>
+        <v>2253.8902961066929</v>
       </c>
       <c r="BD158">
-        <v>0</v>
+        <v>52.127027879686523</v>
       </c>
       <c r="BE158">
-        <v>0</v>
+        <v>5.6843418860808015e-13</v>
       </c>
       <c r="BF158">
-        <v>0</v>
+        <v>16.820076836617119</v>
       </c>
       <c r="BG158">
-        <v>0</v>
+        <v>205.55575046269826</v>
       </c>
       <c r="BH158">
-        <v>0</v>
+        <v>1127.5422039281514</v>
       </c>
       <c r="BI158">
-        <v>0</v>
+        <v>337095977.88344705</v>
       </c>
       <c r="BJ158">
-        <v>0</v>
+        <v>180.69897848155972</v>
       </c>
       <c r="BK158">
-        <v>0</v>
+        <v>6.8252105959301597</v>
       </c>
       <c r="BL158">
-        <v>0</v>
+        <v>72017325.731571957</v>
       </c>
       <c r="BM158">
-        <v>0</v>
+        <v>131.25754161679544</v>
       </c>
       <c r="BN158">
-        <v>0</v>
+        <v>572.31230904687754</v>
       </c>
       <c r="BO158">
-        <v>0</v>
+        <v>70463235.376378611</v>
       </c>
       <c r="BP158">
-        <v>0</v>
+        <v>116.53854448037765</v>
       </c>
       <c r="BQ158">
-        <v>0</v>
+        <v>-0.081062551675011515</v>
       </c>
       <c r="BR158">
-        <v>0</v>
+        <v>26490174.687027361</v>
       </c>
       <c r="BS158">
-        <v>0</v>
+        <v>63.333123499989313</v>
       </c>
       <c r="BT158">
-        <v>0</v>
+        <v>33.102438264242771</v>
       </c>
       <c r="BU158">
-        <v>0</v>
+        <v>48.355193705373139</v>
       </c>
       <c r="BV158">
-        <v>0</v>
+        <v>9488.330917553898</v>
       </c>
       <c r="BW158">
-        <v>0</v>
+        <v>103.5012744104276</v>
       </c>
       <c r="BX158">
-        <v>0</v>
+        <v>75.931296926727455</v>
       </c>
       <c r="BY158">
-        <v>0</v>
+        <v>93.363463685018687</v>
       </c>
       <c r="BZ158">
-        <v>0</v>
+        <v>18305.570408787156</v>
       </c>
       <c r="CA158">
-        <v>0</v>
+        <v>3328.0667703306985</v>
       </c>
       <c r="CB158">
-        <v>0</v>
+        <v>68.36166553328755</v>
       </c>
       <c r="CC158">
-        <v>0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="CD158">
-        <v>0</v>
+        <v>16.89373995091724</v>
       </c>
       <c r="CE158">
-        <v>0</v>
+        <v>299.71120312976768</v>
       </c>
       <c r="CF158">
-        <v>0</v>
+        <v>1522.0192355196432</v>
       </c>
       <c r="CG158">
-        <v>0</v>
+        <v>168476520.08577296</v>
       </c>
       <c r="CH158">
-        <v>0</v>
+        <v>260.11438751258129</v>
       </c>
       <c r="CI158">
-        <v>0</v>
+        <v>-3.2770718003546855</v>
       </c>
       <c r="CJ158">
-        <v>0</v>
+        <v>172465085.25717014</v>
       </c>
       <c r="CK158">
-        <v>0</v>
+        <v>250.67405582836821</v>
       </c>
       <c r="CL158">
-        <v>0</v>
+        <v>1121.3678990139294</v>
       </c>
       <c r="CM158">
-        <v>0</v>
+        <v>68404816.531731948</v>
       </c>
       <c r="CN158">
-        <v>0</v>
+        <v>182.5002683962168</v>
       </c>
       <c r="CO158">
-        <v>0</v>
+        <v>-8.9328863166113219</v>
       </c>
       <c r="CP158">
-        <v>0</v>
+        <v>63803920.346334986</v>
       </c>
       <c r="CQ158">
-        <v>0</v>
+        <v>48.413176280960379</v>
       </c>
       <c r="CR158">
-        <v>0</v>
+        <v>-8.4669974310470035</v>
       </c>
       <c r="CS158">
-        <v>0</v>
+        <v>11.859001290408148</v>
       </c>
       <c r="CT158">
-        <v>0</v>
+        <v>1667.4753949147669</v>
       </c>
       <c r="CU158">
-        <v>0</v>
+        <v>79.205406028967715</v>
       </c>
       <c r="CV158">
-        <v>0</v>
+        <v>19.752071498750468</v>
       </c>
       <c r="CW158">
-        <v>0</v>
+        <v>52.723026654592992</v>
       </c>
       <c r="CX158">
-        <v>0</v>
+        <v>7343.0467796754574</v>
       </c>
       <c r="CY158">
-        <v>0</v>
+        <v>1084.6941353630741</v>
       </c>
       <c r="CZ158">
-        <v>0</v>
+        <v>28.318283762154351</v>
       </c>
       <c r="DA158">
-        <v>0</v>
+        <v>1.1368683772161603e-13</v>
       </c>
       <c r="DB158">
-        <v>0</v>
+        <v>7.7478152525933863</v>
       </c>
     </row>
     <row r="159">
@@ -96714,239 +99316,221 @@
       <c r="AB159">
         <v>1</v>
       </c>
-      <c r="AC159">
-        <v>0</v>
-      </c>
-      <c r="AD159">
-        <v>0</v>
-      </c>
-      <c r="AE159">
-        <v>0</v>
-      </c>
-      <c r="AF159">
-        <v>0</v>
-      </c>
-      <c r="AG159">
-        <v>0</v>
-      </c>
-      <c r="AH159">
-        <v>0</v>
-      </c>
       <c r="AI159">
-        <v>0</v>
+        <v>421.61420551849346</v>
       </c>
       <c r="AJ159">
-        <v>0</v>
+        <v>3925.8052051021077</v>
       </c>
       <c r="AK159">
-        <v>0</v>
+        <v>6256570182.4482775</v>
       </c>
       <c r="AL159">
-        <v>0</v>
+        <v>368.84359215467174</v>
       </c>
       <c r="AM159">
-        <v>0</v>
+        <v>8.2304183481322877</v>
       </c>
       <c r="AN159">
-        <v>0</v>
+        <v>5343414392.5493546</v>
       </c>
       <c r="AO159">
-        <v>0</v>
+        <v>361.38813338585004</v>
       </c>
       <c r="AP159">
-        <v>0</v>
+        <v>2491.2397835171823</v>
       </c>
       <c r="AQ159">
-        <v>0</v>
+        <v>1278356932.9950023</v>
       </c>
       <c r="AR159">
-        <v>0</v>
+        <v>268.26836328122897</v>
       </c>
       <c r="AS159">
-        <v>0</v>
+        <v>-9.6026370927014408</v>
       </c>
       <c r="AT159">
-        <v>0</v>
+        <v>571949548.58494127</v>
       </c>
       <c r="AU159">
-        <v>0</v>
+        <v>86.401433887776847</v>
       </c>
       <c r="AV159">
-        <v>0</v>
+        <v>40.730209856900018</v>
       </c>
       <c r="AW159">
-        <v>0</v>
+        <v>54.060176175317856</v>
       </c>
       <c r="AX159">
-        <v>0</v>
+        <v>5256.4841163436686</v>
       </c>
       <c r="AY159">
-        <v>0</v>
+        <v>151.83466974491014</v>
       </c>
       <c r="AZ159">
-        <v>0</v>
+        <v>77.985778760513782</v>
       </c>
       <c r="BA159">
-        <v>0</v>
+        <v>111.74932164777755</v>
       </c>
       <c r="BB159">
-        <v>0</v>
+        <v>10851.748216039143</v>
       </c>
       <c r="BC159">
-        <v>0</v>
+        <v>936.41870239704815</v>
       </c>
       <c r="BD159">
-        <v>0</v>
+        <v>36.345780221879352</v>
       </c>
       <c r="BE159">
-        <v>0</v>
+        <v>1.8474111129762605e-13</v>
       </c>
       <c r="BF159">
-        <v>0</v>
+        <v>9.5552928816025329</v>
       </c>
       <c r="BG159">
-        <v>0</v>
+        <v>506.12676116771837</v>
       </c>
       <c r="BH159">
-        <v>0</v>
+        <v>3131.6378460102578</v>
       </c>
       <c r="BI159">
-        <v>0</v>
+        <v>1682972158.8794611</v>
       </c>
       <c r="BJ159">
-        <v>0</v>
+        <v>439.76795989295209</v>
       </c>
       <c r="BK159">
-        <v>0</v>
+        <v>5.0991098185950703</v>
       </c>
       <c r="BL159">
-        <v>0</v>
+        <v>1091294180.2379313</v>
       </c>
       <c r="BM159">
-        <v>0</v>
+        <v>424.15213349068512</v>
       </c>
       <c r="BN159">
-        <v>0</v>
+        <v>2260.9905149056185</v>
       </c>
       <c r="BO159">
-        <v>0</v>
+        <v>743597110.55704224</v>
       </c>
       <c r="BP159">
-        <v>0</v>
+        <v>319.54226101711646</v>
       </c>
       <c r="BQ159">
-        <v>0</v>
+        <v>21.975865584122065</v>
       </c>
       <c r="BR159">
-        <v>0</v>
+        <v>591921151.27262008</v>
       </c>
       <c r="BS159">
-        <v>0</v>
+        <v>39.5168735378383</v>
       </c>
       <c r="BT159">
-        <v>0</v>
+        <v>-8.7540141306234354</v>
       </c>
       <c r="BU159">
-        <v>0</v>
+        <v>13.570593458698214</v>
       </c>
       <c r="BV159">
-        <v>0</v>
+        <v>1107.3631265363751</v>
       </c>
       <c r="BW159">
-        <v>0</v>
+        <v>72.710802092504835</v>
       </c>
       <c r="BX159">
-        <v>0</v>
+        <v>19.644462575808355</v>
       </c>
       <c r="BY159">
-        <v>0</v>
+        <v>51.624952381339362</v>
       </c>
       <c r="BZ159">
-        <v>0</v>
+        <v>4144.7810709885725</v>
       </c>
       <c r="CA159">
-        <v>0</v>
+        <v>399.55881145466589</v>
       </c>
       <c r="CB159">
-        <v>0</v>
+        <v>12.745576015268199</v>
       </c>
       <c r="CC159">
         <v>0</v>
       </c>
       <c r="CD159">
-        <v>0</v>
+        <v>4.9328248327736546</v>
       </c>
       <c r="CE159">
-        <v>0</v>
+        <v>447.0828182166444</v>
       </c>
       <c r="CF159">
-        <v>0</v>
+        <v>4359.2820694065813</v>
       </c>
       <c r="CG159">
-        <v>0</v>
+        <v>8768505267.6022015</v>
       </c>
       <c r="CH159">
-        <v>0</v>
+        <v>390.77619209560896</v>
       </c>
       <c r="CI159">
-        <v>0</v>
+        <v>118.19788319857433</v>
       </c>
       <c r="CJ159">
-        <v>0</v>
+        <v>5660528533.4250927</v>
       </c>
       <c r="CK159">
-        <v>0</v>
+        <v>390.61845198963334</v>
       </c>
       <c r="CL159">
-        <v>0</v>
+        <v>2793.7030200472254</v>
       </c>
       <c r="CM159">
-        <v>0</v>
+        <v>2387920112.6260052</v>
       </c>
       <c r="CN159">
-        <v>0</v>
+        <v>280.26167363906427</v>
       </c>
       <c r="CO159">
-        <v>0</v>
+        <v>131.76657740267504</v>
       </c>
       <c r="CP159">
-        <v>0</v>
+        <v>726084290.52921748</v>
       </c>
       <c r="CQ159">
-        <v>0</v>
+        <v>86.146422222231138</v>
       </c>
       <c r="CR159">
-        <v>0</v>
+        <v>41.241267420719716</v>
       </c>
       <c r="CS159">
-        <v>0</v>
+        <v>52.38219266872958</v>
       </c>
       <c r="CT159">
-        <v>0</v>
+        <v>4933.3031542081617</v>
       </c>
       <c r="CU159">
-        <v>0</v>
+        <v>167.90764125087446</v>
       </c>
       <c r="CV159">
-        <v>0</v>
+        <v>82.637380713122056</v>
       </c>
       <c r="CW159">
-        <v>0</v>
+        <v>115.9448951252497</v>
       </c>
       <c r="CX159">
-        <v>0</v>
+        <v>10913.209419681289</v>
       </c>
       <c r="CY159">
-        <v>0</v>
+        <v>1390.685688633585</v>
       </c>
       <c r="CZ159">
-        <v>0</v>
+        <v>66.792742318349156</v>
       </c>
       <c r="DA159">
-        <v>0</v>
+        <v>2.8421709430404007e-13</v>
       </c>
       <c r="DB159">
-        <v>0</v>
+        <v>14.638796722458789</v>
       </c>
     </row>
     <row r="160">
@@ -97035,238 +99619,238 @@
         <v>2</v>
       </c>
       <c r="AC160">
-        <v>0</v>
+        <v>3.2799999713897705</v>
       </c>
       <c r="AD160">
-        <v>0</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="AE160">
-        <v>0</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="AF160">
-        <v>0</v>
+        <v>1.7699999809265137</v>
       </c>
       <c r="AG160">
-        <v>0</v>
+        <v>1.7999999523162842</v>
       </c>
       <c r="AH160">
-        <v>0</v>
+        <v>1.0700000524520874</v>
       </c>
       <c r="AI160">
-        <v>0</v>
+        <v>249.96563686205795</v>
       </c>
       <c r="AJ160">
-        <v>0</v>
+        <v>1201.851606363829</v>
       </c>
       <c r="AK160">
-        <v>0</v>
+        <v>113217401.2711816</v>
       </c>
       <c r="AL160">
-        <v>0</v>
+        <v>210.65256877830669</v>
       </c>
       <c r="AM160">
-        <v>0</v>
+        <v>-1.1554756390728216</v>
       </c>
       <c r="AN160">
-        <v>0</v>
+        <v>99672291.81453602</v>
       </c>
       <c r="AO160">
-        <v>0</v>
+        <v>159.49349241920024</v>
       </c>
       <c r="AP160">
-        <v>0</v>
+        <v>630.60750490988073</v>
       </c>
       <c r="AQ160">
-        <v>0</v>
+        <v>17116586.716191769</v>
       </c>
       <c r="AR160">
-        <v>0</v>
+        <v>129.166471075489</v>
       </c>
       <c r="AS160">
-        <v>0</v>
+        <v>8.2460928812622143</v>
       </c>
       <c r="AT160">
-        <v>0</v>
+        <v>14941783.697937109</v>
       </c>
       <c r="AU160">
-        <v>0</v>
+        <v>61.437968212024366</v>
       </c>
       <c r="AV160">
-        <v>0</v>
+        <v>-11.829712146634206</v>
       </c>
       <c r="AW160">
-        <v>0</v>
+        <v>11.235036155776305</v>
       </c>
       <c r="AX160">
-        <v>0</v>
+        <v>2009.7222002282053</v>
       </c>
       <c r="AY160">
-        <v>0</v>
+        <v>88.355378035760197</v>
       </c>
       <c r="AZ160">
-        <v>0</v>
+        <v>19.997868922801551</v>
       </c>
       <c r="BA160">
-        <v>0</v>
+        <v>52.103624860404686</v>
       </c>
       <c r="BB160">
-        <v>0</v>
+        <v>9241.3568021097453</v>
       </c>
       <c r="BC160">
-        <v>0</v>
+        <v>5306.3347988056294</v>
       </c>
       <c r="BD160">
-        <v>0</v>
+        <v>113.61219078651681</v>
       </c>
       <c r="BE160">
-        <v>0</v>
+        <v>1.3073986337985843e-12</v>
       </c>
       <c r="BF160">
-        <v>0</v>
+        <v>29.81086965621142</v>
       </c>
       <c r="BG160">
-        <v>0</v>
+        <v>227.30371591125626</v>
       </c>
       <c r="BH160">
-        <v>0</v>
+        <v>1309.1222155009702</v>
       </c>
       <c r="BI160">
-        <v>0</v>
+        <v>1384506877.298337</v>
       </c>
       <c r="BJ160">
-        <v>0</v>
+        <v>202.96883798836302</v>
       </c>
       <c r="BK160">
-        <v>0</v>
+        <v>-1.1916640105596619</v>
       </c>
       <c r="BL160">
-        <v>0</v>
+        <v>1874945840.8467872</v>
       </c>
       <c r="BM160">
-        <v>0</v>
+        <v>150.73336487233843</v>
       </c>
       <c r="BN160">
-        <v>0</v>
+        <v>520.28413191550396</v>
       </c>
       <c r="BO160">
-        <v>0</v>
+        <v>53316684.811494328</v>
       </c>
       <c r="BP160">
-        <v>0</v>
+        <v>141.42826819237081</v>
       </c>
       <c r="BQ160">
-        <v>0</v>
+        <v>7.6833281862941147</v>
       </c>
       <c r="BR160">
-        <v>0</v>
+        <v>14224166.438464109</v>
       </c>
       <c r="BS160">
-        <v>0</v>
+        <v>64.961476812783374</v>
       </c>
       <c r="BT160">
-        <v>0</v>
+        <v>38.130833566933234</v>
       </c>
       <c r="BU160">
-        <v>0</v>
+        <v>53.297313418475966</v>
       </c>
       <c r="BV160">
-        <v>0</v>
+        <v>9607.3226029298203</v>
       </c>
       <c r="BW160">
-        <v>0</v>
+        <v>103.86877281666405</v>
       </c>
       <c r="BX160">
-        <v>0</v>
+        <v>77.974367333126665</v>
       </c>
       <c r="BY160">
-        <v>0</v>
+        <v>93.513730968615135</v>
       </c>
       <c r="BZ160">
-        <v>0</v>
+        <v>16836.370595475444</v>
       </c>
       <c r="CA160">
-        <v>0</v>
+        <v>2744.5727072584659</v>
       </c>
       <c r="CB160">
-        <v>0</v>
+        <v>36.040406406760866</v>
       </c>
       <c r="CC160">
-        <v>0</v>
+        <v>2.2737367544323206e-13</v>
       </c>
       <c r="CD160">
-        <v>0</v>
+        <v>15.16338512297496</v>
       </c>
       <c r="CE160">
-        <v>0</v>
+        <v>389.64121685738058</v>
       </c>
       <c r="CF160">
-        <v>0</v>
+        <v>3054.2915304218586</v>
       </c>
       <c r="CG160">
-        <v>0</v>
+        <v>1474457622.5375907</v>
       </c>
       <c r="CH160">
-        <v>0</v>
+        <v>331.01265797515146</v>
       </c>
       <c r="CI160">
-        <v>0</v>
+        <v>4.5510717046999485</v>
       </c>
       <c r="CJ160">
-        <v>0</v>
+        <v>1553834369.4333069</v>
       </c>
       <c r="CK160">
-        <v>0</v>
+        <v>236.85254487880346</v>
       </c>
       <c r="CL160">
-        <v>0</v>
+        <v>1449.6693371059937</v>
       </c>
       <c r="CM160">
-        <v>0</v>
+        <v>243990971.66973704</v>
       </c>
       <c r="CN160">
-        <v>0</v>
+        <v>208.30336817345776</v>
       </c>
       <c r="CO160">
-        <v>0</v>
+        <v>4.0905789482252981</v>
       </c>
       <c r="CP160">
-        <v>0</v>
+        <v>230362075.10602209</v>
       </c>
       <c r="CQ160">
-        <v>0</v>
+        <v>44.956119595108341</v>
       </c>
       <c r="CR160">
-        <v>0</v>
+        <v>-12.657962218705881</v>
       </c>
       <c r="CS160">
-        <v>0</v>
+        <v>8.6152349493600759</v>
       </c>
       <c r="CT160">
-        <v>0</v>
+        <v>940.81224231201065</v>
       </c>
       <c r="CU160">
-        <v>0</v>
+        <v>70.318396095926914</v>
       </c>
       <c r="CV160">
-        <v>0</v>
+        <v>19.551580011912669</v>
       </c>
       <c r="CW160">
-        <v>0</v>
+        <v>44.569774347981131</v>
       </c>
       <c r="CX160">
-        <v>0</v>
+        <v>4780.4132030404962</v>
       </c>
       <c r="CY160">
-        <v>0</v>
+        <v>2317.2371817127087</v>
       </c>
       <c r="CZ160">
-        <v>0</v>
+        <v>80.349186196194012</v>
       </c>
       <c r="DA160">
-        <v>0</v>
+        <v>5.6843418860808015e-14</v>
       </c>
       <c r="DB160">
-        <v>0</v>
+        <v>21.455899830673221</v>
       </c>
     </row>
   </sheetData>
